--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail0 Features.xlsx
@@ -5759,7 +5759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5770,29 +5770,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5813,115 +5811,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5938,72 +5926,66 @@
         <v>1.22795017936011e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.740586306235331</v>
+        <v>6.718939180657285e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.267058480953269</v>
+        <v>1.704471739482584e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.718939180657285e-07</v>
+        <v>-0.06926281422813947</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.704471739482584e-06</v>
+        <v>0.2133543876469285</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.06926281422813947</v>
+        <v>0.05017000442288182</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2133543876469285</v>
+        <v>1.458748151984045</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05017000442288182</v>
+        <v>1.280242912926737</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.450303656491243</v>
+        <v>23.04399672592465</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.280242912926737</v>
+        <v>6.890763807136756e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>23.04399672592465</v>
+        <v>470550836.215399</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.890763807136756e-15</v>
+        <v>2.255092654413817e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>470550836.215399</v>
+        <v>1525.739757117086</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.255092654413817e-07</v>
+        <v>4.078549100787606e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1525.739757117086</v>
+        <v>11.91082002763774</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>4.078549100787606e-05</v>
+        <v>1.075608450298247</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.91082002763774</v>
+        <v>0.005786141099835229</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.075608450298247</v>
+        <v>6.563910933067661</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005786141099835229</v>
+        <v>0.9293453939755667</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.563910933067661</v>
+        <v>1.082341785138285</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9293453939755667</v>
+        <v>32</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.082341785138285</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>4.411513610586296</v>
       </c>
     </row>
@@ -6018,72 +6000,66 @@
         <v>1.06203094012986e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.369198201758102</v>
+        <v>5.17555736686659e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.549489367246223</v>
+        <v>1.69733344163429e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5.17555736686659e-07</v>
+        <v>-0.05635216020944277</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.69733344163429e-06</v>
+        <v>0.1681169827488105</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.05635216020944277</v>
+        <v>0.03135859663134356</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1681169827488105</v>
+        <v>1.458925473098111</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03135859663134356</v>
+        <v>1.279846079585092</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.450971293993945</v>
+        <v>22.81639846720926</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.279846079585092</v>
+        <v>7.028923037842322e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>22.81639846720926</v>
+        <v>461324065.6824412</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.028923037842322e-15</v>
+        <v>2.300223721229511e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>461324065.6824412</v>
+        <v>1495.89465287999</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.300223721229511e-07</v>
+        <v>3.207900178599139e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1495.89465287999</v>
+        <v>11.25520221090879</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.207900178599139e-05</v>
+        <v>1.103437963868032</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.25520221090879</v>
+        <v>0.004063754370686774</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.103437963868032</v>
+        <v>6.844625368598535</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.004063754370686774</v>
+        <v>0.9305457719505911</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.844625368598535</v>
+        <v>1.152743741305628</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9305457719505911</v>
+        <v>20</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.152743741305628</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>4.79116385530283</v>
       </c>
     </row>
@@ -6098,72 +6074,66 @@
         <v>9.549332050307685e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.142541422628278</v>
+        <v>4.254044298651862e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.7183422575261931</v>
+        <v>1.69212868590559e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.254044298651862e-07</v>
+        <v>-0.04778324059195156</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.69212868590559e-06</v>
+        <v>0.1443229250641416</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.04778324059195156</v>
+        <v>0.02307479218757285</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1443229250641416</v>
+        <v>1.457231124421989</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02307479218757285</v>
+        <v>1.278968460704258</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.449627059606399</v>
+        <v>22.75007622276603</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.278968460704258</v>
+        <v>7.069964962712536e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>22.75007622276603</v>
+        <v>458650664.3329724</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.069964962712536e-15</v>
+        <v>2.313620229014252e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>458650664.3329724</v>
+        <v>1487.240883025131</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.313620229014252e-07</v>
+        <v>2.422797541211597e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1487.240883025131</v>
+        <v>9.587296132302667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.422797541211597e-05</v>
+        <v>1.329353001722679</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.587296132302667</v>
+        <v>0.002226944575402442</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.329353001722679</v>
+        <v>7.327207166821378</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.002226944575402442</v>
+        <v>0.9297024601747715</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.327207166821378</v>
+        <v>1.145080411245319</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9297024601747715</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.145080411245319</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>5.439045069869976</v>
       </c>
     </row>
@@ -6178,72 +6148,66 @@
         <v>8.78391296989085e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.996653058151623</v>
+        <v>3.684623035828507e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.3110616571423321</v>
+        <v>1.688017081482654e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.684623035828507e-07</v>
+        <v>-0.0427720475591666</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.688017081482654e-06</v>
+        <v>0.1357916931997475</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0427720475591666</v>
+        <v>0.02025367391244171</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1357916931997475</v>
+        <v>1.454305644549039</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02025367391244171</v>
+        <v>1.276998670138431</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.446836616356077</v>
+        <v>22.75638594065456</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.276998670138431</v>
+        <v>7.066044893855975e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>22.75638594065456</v>
+        <v>458897245.244198</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.066044893855975e-15</v>
+        <v>2.312376585416852e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>458897245.244198</v>
+        <v>1488.014946888872</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.312376585416852e-07</v>
+        <v>2.68115148522713e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1488.014946888872</v>
+        <v>9.250162296000372</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.68115148522713e-05</v>
+        <v>1.589817481183059</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.250162296000372</v>
+        <v>0.002294140741183731</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.589817481183059</v>
+        <v>7.40564181513983</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002294140741183731</v>
+        <v>0.9310893694522915</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.40564181513983</v>
+        <v>1.10409022015031</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9310893694522915</v>
+        <v>10</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.10409022015031</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>5.578053979674285</v>
       </c>
     </row>
@@ -6258,72 +6222,66 @@
         <v>8.167691497371297e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8809671325691094</v>
+        <v>3.360166780119215e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.05209654906338157</v>
+        <v>1.684483366524165e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.360166780119215e-07</v>
+        <v>-0.04117196628521667</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.684483366524165e-06</v>
+        <v>0.1386993274579144</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04117196628521667</v>
+        <v>0.02092586295864507</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1386993274579144</v>
+        <v>1.459462797265157</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02092586295864507</v>
+        <v>1.278974566369809</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.452089332511648</v>
+        <v>22.78896133113293</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.278974566369809</v>
+        <v>7.045858396115202e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>22.78896133113293</v>
+        <v>460270584.1127662</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.045858396115202e-15</v>
+        <v>2.305579934713327e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>460270584.1127662</v>
+        <v>1492.658130041235</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.305579934713327e-07</v>
+        <v>4.204108819894402e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1492.658130041235</v>
+        <v>10.47883504134893</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4.204108819894402e-05</v>
+        <v>1.344599591317895</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.47883504134893</v>
+        <v>0.004616363050708286</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.344599591317895</v>
+        <v>6.831597512381525</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.004616363050708286</v>
+        <v>0.9318336189755901</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.831597512381525</v>
+        <v>1.106178139688698</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9318336189755901</v>
+        <v>26</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.106178139688698</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>4.756085196678523</v>
       </c>
     </row>
@@ -6338,72 +6296,66 @@
         <v>7.622800301146218e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7632801704022889</v>
+        <v>3.117480552439847e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2076428094282079</v>
+        <v>1.681252656327506e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.117480552439847e-07</v>
+        <v>-0.04076795466625292</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.681252656327506e-06</v>
+        <v>0.1446039873446448</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04076795466625292</v>
+        <v>0.02256518888731834</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1446039873446448</v>
+        <v>1.459242518868428</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02256518888731834</v>
+        <v>1.278485016767047</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.452232206571638</v>
+        <v>22.8604968763028</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.278485016767047</v>
+        <v>7.001831294278438e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>22.8604968763028</v>
+        <v>463165363.5643634</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.001831294278438e-15</v>
+        <v>2.291161696577287e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>463165363.5643634</v>
+        <v>1502.047931233191</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.291161696577287e-07</v>
+        <v>8.152562637494596e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1502.047931233191</v>
+        <v>12.14334595470296</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>8.152562637494596e-05</v>
+        <v>1.062416501973885</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>12.14334595470296</v>
+        <v>0.01202183824156841</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.062416501973885</v>
+        <v>5.33601686042299</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01202183824156841</v>
+        <v>0.9319668932990072</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.33601686042299</v>
+        <v>1.076799068709131</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9319668932990072</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.076799068709131</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.787764430954066</v>
       </c>
     </row>
@@ -6418,72 +6370,66 @@
         <v>7.138537010652225e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.6447140700828105</v>
+        <v>2.879526348795562e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.4724130953938661</v>
+        <v>1.67826387786201e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.879526348795562e-07</v>
+        <v>-0.04029067651290845</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.67826387786201e-06</v>
+        <v>0.1502812442514875</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04029067651290845</v>
+        <v>0.02419953791773722</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1502812442514875</v>
+        <v>1.457888443231674</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02419953791773722</v>
+        <v>1.277636211852155</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.451133255259149</v>
+        <v>22.94894913968078</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.277636211852155</v>
+        <v>6.94796091593116e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>22.94894913968078</v>
+        <v>466739717.3863973</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.94796091593116e-15</v>
+        <v>2.273594629384418e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>466739717.3863973</v>
+        <v>1513.585242078025</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.273594629384418e-07</v>
+        <v>0.0001357544595848795</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1513.585242078025</v>
+        <v>11.96241245548239</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001357544595848795</v>
+        <v>1.047957618376687</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.96241245548239</v>
+        <v>0.0194263697342791</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.047957618376687</v>
+        <v>3.683777042583479</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0194263697342791</v>
+        <v>0.930572455777566</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.683777042583479</v>
+        <v>1.123377065166678</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.930572455777566</v>
+        <v>33</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.123377065166678</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.7908256418523857</v>
       </c>
     </row>
@@ -6498,72 +6444,66 @@
         <v>6.716878246390696e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5365687287259342</v>
+        <v>2.648288634756952e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7081289065853866</v>
+        <v>1.675498301690566e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.648288634756952e-07</v>
+        <v>-0.03959394705711777</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.675498301690566e-06</v>
+        <v>0.1554904567376791</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03959394705711777</v>
+        <v>0.02573662095454365</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1554904567376791</v>
+        <v>1.464085472152726</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02573662095454365</v>
+        <v>1.273355785573171</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.458007003401124</v>
+        <v>23.18520122154688</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.273355785573171</v>
+        <v>6.807085958161895e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>23.18520122154688</v>
+        <v>476395738.2026746</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.807085958161895e-15</v>
+        <v>2.227565213089427e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>476395738.2026746</v>
+        <v>1544.887894517876</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.227565213089427e-07</v>
+        <v>0.0001515210783439503</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1544.887894517876</v>
+        <v>10.53388000308219</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001515210783439503</v>
+        <v>1.191755858606704</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.53388000308219</v>
+        <v>0.01681317703821613</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.191755858606704</v>
+        <v>3.327985999480233</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01681317703821613</v>
+        <v>0.9334572447435908</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.327985999480233</v>
+        <v>1.144033620913074</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9334572447435908</v>
+        <v>34</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.144033620913074</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2679733808418713</v>
       </c>
     </row>
@@ -6578,72 +6518,66 @@
         <v>6.355397238549046e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4469877787696592</v>
+        <v>2.440980596177644e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.8930567370191178</v>
+        <v>1.672940299904436e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.440980596177644e-07</v>
+        <v>-0.03878883757618422</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.672940299904436e-06</v>
+        <v>0.1606680999043843</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03878883757618422</v>
+        <v>0.02731202110172458</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1606680999043843</v>
+        <v>1.443897650894887</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02731202110172458</v>
+        <v>1.517740532929024</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.386954632807809</v>
+        <v>5.524211579773651</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.517740532929024</v>
+        <v>3.067125901791736e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.524211579773651</v>
+        <v>71018117.91290747</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.067125901791736e-15</v>
+        <v>1.088249675737825e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>71018117.91290747</v>
+        <v>15.46927360637813</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.088249675737825e-06</v>
+        <v>0.0001607642234040854</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>15.46927360637813</v>
+        <v>9.442448089345772</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001607642234040854</v>
+        <v>1.486674238552786</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.442448089345772</v>
+        <v>0.01433371017287058</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.486674238552786</v>
+        <v>3.402807754119029</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01433371017287058</v>
+        <v>0.9411454732086828</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.402807754119029</v>
+        <v>1.674192899196005</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9411454732086828</v>
+        <v>32</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.674192899196005</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2432658455774588</v>
       </c>
     </row>
@@ -6658,72 +6592,66 @@
         <v>6.044423889903285e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3763225656432934</v>
+        <v>2.264789865160574e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.031131059252473</v>
+        <v>1.670561545330186e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.264789865160574e-07</v>
+        <v>-0.0380185216850626</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.670561545330186e-06</v>
+        <v>0.1661338408487406</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.0380185216850626</v>
+        <v>0.02904044508704177</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1661338408487406</v>
+        <v>1.460572702195124</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02904044508704177</v>
+        <v>1.460746825755289</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.405649974044346</v>
+        <v>6.148764892361744</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.460746825755289</v>
+        <v>2.475690992483744e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.148764892361744</v>
+        <v>86918910.76003549</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.475690992483744e-15</v>
+        <v>8.842225903758863e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>86918910.76003549</v>
+        <v>18.70359057016019</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.842225903758863e-07</v>
+        <v>0.0001824598209892345</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>18.70359057016019</v>
+        <v>9.498949915533023</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001824598209892345</v>
+        <v>1.635085719169959</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.498949915533023</v>
+        <v>0.01646335867921924</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.635085719169959</v>
+        <v>3.330605267174373</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01646335867921924</v>
+        <v>0.9426105129651279</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.330605267174373</v>
+        <v>1.64315287691422</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9426105129651279</v>
+        <v>32</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.64315287691422</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2332219961877389</v>
       </c>
     </row>
@@ -6738,72 +6666,66 @@
         <v>5.775266739738527e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3232237391536793</v>
+        <v>2.111064592279781e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.129275160617874</v>
+        <v>1.668342521602919e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.111064592279781e-07</v>
+        <v>-0.03712381876309875</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.668342521602919e-06</v>
+        <v>0.1715914137957785</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03712381876309875</v>
+        <v>0.03081733480976297</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1715914137957785</v>
+        <v>1.554578600467114</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03081733480976297</v>
+        <v>1.559116862956495</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.501926796729161</v>
+        <v>5.105558376889855</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.559116862956495</v>
+        <v>1.813989967502241e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.105558376889855</v>
+        <v>101852745.7237602</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.813989967502241e-15</v>
+        <v>8.664840931980422e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>101852745.7237602</v>
+        <v>18.81829892905539</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.664840931980422e-07</v>
+        <v>0.000185950245149546</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>18.81829892905539</v>
+        <v>12.40605471719472</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000185950245149546</v>
+        <v>1.099122121084781</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.40605471719472</v>
+        <v>0.02861963823949327</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.099122121084781</v>
+        <v>2.948785850808858</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02861963823949327</v>
+        <v>0.9485310354878208</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.948785850808858</v>
+        <v>1.601098334393619</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9485310354878208</v>
+        <v>32</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.601098334393619</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2471269638054532</v>
       </c>
     </row>
@@ -6818,72 +6740,66 @@
         <v>5.541698555443682e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2867644168499152</v>
+        <v>1.975603015987796e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.191027608473882</v>
+        <v>1.66627318677429e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.975603015987796e-07</v>
+        <v>-0.03604305630464974</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.66627318677429e-06</v>
+        <v>0.176921213300764</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03604305630464974</v>
+        <v>0.0325965194036579</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.176921213300764</v>
+        <v>1.674709870238842</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0325965194036579</v>
+        <v>1.50407038044947</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.628829237365728</v>
+        <v>4.159952214397446</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.50407038044947</v>
+        <v>1.813745569105578e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.159952214397446</v>
+        <v>87509439.90464428</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.813745569105578e-15</v>
+        <v>1.143611102986073e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>87509439.90464428</v>
+        <v>13.88948595250445</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.143611102986073e-06</v>
+        <v>0.0002181083898427306</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>13.88948595250445</v>
+        <v>13.63214756458677</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002181083898427306</v>
+        <v>0.982245212156031</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>13.63214756458677</v>
+        <v>0.04053227016944006</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.982245212156031</v>
+        <v>2.349793674163736</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.04053227016944006</v>
+        <v>0.9555743178989213</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.349793674163736</v>
+        <v>1.664411488074506</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9555743178989213</v>
+        <v>28</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.664411488074506</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2220151832709063</v>
       </c>
     </row>
@@ -6898,72 +6814,66 @@
         <v>5.339168858668349e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2663832608829948</v>
+        <v>1.850113265440316e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.218156652308637</v>
+        <v>1.664346178303173e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.850113265440316e-07</v>
+        <v>-0.03484582427094275</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.664346178303173e-06</v>
+        <v>0.1819202675802102</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03484582427094275</v>
+        <v>0.03430543818557353</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1819202675802102</v>
+        <v>1.746711962374038</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03430543818557353</v>
+        <v>1.54784147191019</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.707673266005061</v>
+        <v>4.411090789042954</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.54784147191019</v>
+        <v>1.596673407836513e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.411090789042954</v>
+        <v>90559229.30401927</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.596673407836513e-15</v>
+        <v>1.234006391593374e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>90559229.30401927</v>
+        <v>13.09427712353897</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.234006391593374e-06</v>
+        <v>0.0002172613996974571</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>13.09427712353897</v>
+        <v>12.28882016576618</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0002172613996974571</v>
+        <v>1.084340641811115</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.28882016576618</v>
+        <v>0.03280975223316974</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.084340641811115</v>
+        <v>2.406193355359205</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.03280975223316974</v>
+        <v>0.9575030042403314</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.406193355359205</v>
+        <v>1.670250657131806</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9575030042403314</v>
+        <v>40</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.670250657131806</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2231172350136436</v>
       </c>
     </row>
@@ -6978,72 +6888,66 @@
         <v>5.165862152502026e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2635004432799376</v>
+        <v>1.73083551320664e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.208975282368116</v>
+        <v>1.662550486489764e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.73083551320664e-07</v>
+        <v>-0.03356260692759386</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.662550486489764e-06</v>
+        <v>0.186416413630307</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03356260692759386</v>
+        <v>0.03587413275680729</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.186416413630307</v>
+        <v>1.82325752706067</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03587413275680729</v>
+        <v>1.732301993425823</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.805217073606401</v>
+        <v>4.021676857710991</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.732301993425823</v>
+        <v>9.73783230197575e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.021676857710991</v>
+        <v>140445753.3457297</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>9.73783230197575e-16</v>
+        <v>8.385904911766599e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>140445753.3457297</v>
+        <v>19.20788359595451</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>8.385904911766599e-07</v>
+        <v>0.0001906369975706015</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>19.20788359595451</v>
+        <v>11.17272514291817</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001906369975706015</v>
+        <v>1.171955941642274</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.17272514291817</v>
+        <v>0.02379717582378084</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.171955941642274</v>
+        <v>2.71385649035154</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02379717582378084</v>
+        <v>0.9628609174628415</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.71385649035154</v>
+        <v>1.505260229964291</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9628609174628415</v>
+        <v>45</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.505260229964291</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.310089680798335</v>
       </c>
     </row>
@@ -7058,72 +6962,66 @@
         <v>5.018764170675711e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2771843186277462</v>
+        <v>1.624697991387778e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.166460421194888</v>
+        <v>1.660878514620357e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.624697991387778e-07</v>
+        <v>-0.03212029893155677</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.660878514620357e-06</v>
+        <v>0.1905408739881135</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03212029893155677</v>
+        <v>0.03733504038957967</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1905408739881135</v>
+        <v>1.851450879885059</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03733504038957967</v>
+        <v>1.657815484289122</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.8489251010313</v>
+        <v>4.448333338190178</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.657815484289122</v>
+        <v>5.479495793283334e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.448333338190178</v>
+        <v>243905998.2799293</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>5.479495793283334e-16</v>
+        <v>4.886742723585168e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>243905998.2799293</v>
+        <v>32.59759499370251</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.886742723585168e-07</v>
+        <v>0.0001324617006037644</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>32.59759499370251</v>
+        <v>9.756847421982158</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001324617006037644</v>
+        <v>1.493506992157084</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.756847421982158</v>
+        <v>0.0126098335370319</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.493506992157084</v>
+        <v>3.381038090003893</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0126098335370319</v>
+        <v>0.96264491047417</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.381038090003893</v>
+        <v>1.467291457053715</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.96264491047417</v>
+        <v>45</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.467291457053715</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.5695637138903344</v>
       </c>
     </row>
@@ -7138,72 +7036,66 @@
         <v>4.892969743672394e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3036622722430924</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.097326112480587</v>
+        <v>1.659329047019629e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>-0.03032862713472068</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.659329047019629e-06</v>
+        <v>0.1943888126382299</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03032862713472068</v>
+        <v>0.0387046779124268</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1943888126382299</v>
+        <v>1.871149930619739</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0387046779124268</v>
+        <v>1.783564205202135</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.875184690448544</v>
+        <v>4.375090852114126</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.783564205202135</v>
+        <v>3.127079077271857e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.375090852114126</v>
+        <v>438373678.8364772</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.127079077271857e-16</v>
+        <v>2.726322607687517e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>438373678.8364772</v>
+        <v>60.09354215381009</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.726322607687517e-07</v>
+        <v>9.581414083045772e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>60.09354215381009</v>
+        <v>7.880973407452584</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>9.581414083045772e-05</v>
+        <v>1.495292310582123</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.880973407452584</v>
+        <v>0.005950991552461043</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.495292310582123</v>
+        <v>3.707619296293858</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.005950991552461043</v>
+        <v>0.9628055742235985</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.707619296293858</v>
+        <v>1.402213172532327</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9628055742235985</v>
+        <v>45</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.402213172532327</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.8202044802046007</v>
       </c>
     </row>
@@ -7218,72 +7110,66 @@
         <v>4.786057685572314e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3394130721274313</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.006651381439002</v>
+        <v>1.657925780318263e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>-0.02747127802526854</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.657925780318263e-06</v>
+        <v>0.1976405177144371</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02747127802526854</v>
+        <v>0.03981377961852477</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1976405177144371</v>
+        <v>1.873888663088543</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.03981377961852477</v>
+        <v>1.828759991703883</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.880846406108977</v>
+        <v>5.004706020307269</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.828759991703883</v>
+        <v>1.912774860925877e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.004706020307269</v>
+        <v>694061863.6009885</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.912774860925877e-16</v>
+        <v>1.724825949322652e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>694061863.6009885</v>
+        <v>92.1425483860685</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.724825949322652e-07</v>
+        <v>0.0001141364598457596</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>92.1425483860685</v>
+        <v>8.431360171571274</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001141364598457596</v>
+        <v>1.19704247349719</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.431360171571274</v>
+        <v>0.008113713749984253</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.19704247349719</v>
+        <v>3.426977744340619</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.008113713749984253</v>
+        <v>0.9613181217581055</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.426977744340619</v>
+        <v>1.404188025107444</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9613181217581055</v>
+        <v>45</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.404188025107444</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.5961558174412055</v>
       </c>
     </row>
@@ -7298,72 +7184,66 @@
         <v>4.69832737531245e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3805068485269969</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.9013774974282689</v>
+        <v>1.656717601157959e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>-0.02326012960517738</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.656717601157959e-06</v>
+        <v>0.2004415004886956</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.02326012960517738</v>
+        <v>0.04071431899559778</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2004415004886956</v>
+        <v>1.882729087388275</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04071431899559778</v>
+        <v>1.935494459254083</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.891339455809267</v>
+        <v>4.45900316962631</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.935494459254083</v>
+        <v>1.593607678600253e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.45900316962631</v>
+        <v>833396853.4197851</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.593607678600253e-16</v>
+        <v>1.43745344145717e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>833396853.4197851</v>
+        <v>110.6840715620369</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.43745344145717e-07</v>
+        <v>0.0001420834121728154</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>110.6840715620369</v>
+        <v>9.283266926478536</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001420834121728154</v>
+        <v>1.244524355496265</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.283266926478536</v>
+        <v>0.01224461274699181</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.244524355496265</v>
+        <v>3.212457401056735</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01224461274699181</v>
+        <v>0.9617401176316878</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.212457401056735</v>
+        <v>1.372186412154964</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9617401176316878</v>
+        <v>45</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.372186412154964</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.4746185763326266</v>
       </c>
     </row>
@@ -7378,72 +7258,66 @@
         <v>4.62972589412408e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.4202384044941097</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.7948981987110653</v>
+        <v>1.655759568118707e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>-0.01757591294667932</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.655759568118707e-06</v>
+        <v>0.203326466087593</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.01757591294667932</v>
+        <v>0.04164542402763062</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.203326466087593</v>
+        <v>1.891845807534428</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.04164542402763062</v>
+        <v>2.086555336784356</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.89730305819981</v>
+        <v>4.056958827519684</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.086555336784356</v>
+        <v>1.847044237715168e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.056958827519684</v>
+        <v>716655564.5364575</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.847044237715168e-16</v>
+        <v>1.672917935508632e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>716655564.5364575</v>
+        <v>94.86330513185227</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.672917935508632e-07</v>
+        <v>0.0001728770044641481</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>94.86330513185227</v>
+        <v>10.47999044729833</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001728770044641481</v>
+        <v>1.22297394808687</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.47999044729833</v>
+        <v>0.01898711593688122</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.22297394808687</v>
+        <v>2.982670534862283</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01898711593688122</v>
+        <v>0.9617463717403006</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.982670534862283</v>
+        <v>1.342209833156182</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9617463717403006</v>
+        <v>42</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.342209833156182</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.4696009160170789</v>
       </c>
     </row>
@@ -7458,72 +7332,66 @@
         <v>4.581729231153364e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.4502564853552565</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.7073992048958684</v>
+        <v>1.655110935822418e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>-0.01030333724158923</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.655110935822418e-06</v>
+        <v>0.2068865926454864</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.01030333724158923</v>
+        <v>0.04290026240756488</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2068865926454864</v>
+        <v>1.873717870352906</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.04290026240756488</v>
+        <v>1.968977934765718</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.871982323231445</v>
+        <v>4.16347611455461</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.968977934765718</v>
+        <v>2.349468810556122e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.16347611455461</v>
+        <v>518546281.5833095</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.349468810556122e-16</v>
+        <v>2.284592555104654e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>518546281.5833095</v>
+        <v>63.17492467777974</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.284592555104654e-07</v>
+        <v>0.0001901664013386225</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>63.17492467777974</v>
+        <v>11.95931105906904</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001901664013386225</v>
+        <v>1.119348303314915</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>11.95931105906904</v>
+        <v>0.02719857256303079</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.119348303314915</v>
+        <v>2.838004106295104</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02719857256303079</v>
+        <v>0.9614155721953085</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.838004106295104</v>
+        <v>1.346465818967361</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9614155721953085</v>
+        <v>26</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.346465818967361</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.5372505527583799</v>
       </c>
     </row>
@@ -7538,72 +7406,66 @@
         <v>4.558961366203376e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.46368787218232</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.663398887261077</v>
+        <v>1.654824203104338e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>-0.002296504328977025</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.654824203104338e-06</v>
+        <v>0.2102190767704656</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.002296504328977025</v>
+        <v>0.04419018629901732</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2102190767704656</v>
+        <v>1.847494482952726</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.04419018629901732</v>
+        <v>1.880702534327096</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.821835671731782</v>
+        <v>5.102082271077384</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.880702534327096</v>
+        <v>2.525466027865069e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.102082271077384</v>
+        <v>491699131.7835863</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.525466027865069e-16</v>
+        <v>2.395038697693588e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>491699131.7835863</v>
+        <v>61.05769620385006</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.395038697693588e-07</v>
+        <v>0.0001704117266650289</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>61.05769620385006</v>
+        <v>11.96391234916165</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001704117266650289</v>
+        <v>1.110291505266166</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.96391234916165</v>
+        <v>0.02439191635674019</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.110291505266166</v>
+        <v>3.031365313439833</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02439191635674019</v>
+        <v>0.9619873183400444</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.031365313439833</v>
+        <v>1.528560341638592</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9619873183400444</v>
+        <v>28</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.528560341638592</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.5758380856276379</v>
       </c>
     </row>
@@ -7618,72 +7480,66 @@
         <v>4.564194298452949e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4611354137812768</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.6730345052502642</v>
+        <v>1.654884262171771e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.004738158676813446</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.654884262171771e-06</v>
+        <v>0.2111922460899032</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.004738158676813446</v>
+        <v>0.04461964669818295</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2111922460899032</v>
+        <v>1.854263915999814</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04461964669818295</v>
+        <v>1.954755620623333</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.830186474716223</v>
+        <v>4.490213636312429</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.954755620623333</v>
+        <v>3.260636881438898e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.490213636312429</v>
+        <v>383299871.0295984</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.260636881438898e-16</v>
+        <v>3.069293177728939e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>383299871.0295984</v>
+        <v>47.90488289391568</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.069293177728939e-07</v>
+        <v>0.000194964512107538</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>47.90488289391568</v>
+        <v>9.009012802210018</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.000194964512107538</v>
+        <v>1.783550563252259</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.009012802210018</v>
+        <v>0.01582377049633635</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.783550563252259</v>
+        <v>3.08882518332434</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01582377049633635</v>
+        <v>0.9629656630103389</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.08882518332434</v>
+        <v>1.56239640277439</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9629656630103389</v>
+        <v>26</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.56239640277439</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3321341510814666</v>
       </c>
     </row>
@@ -7698,72 +7554,66 @@
         <v>4.595098533484007e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4468398862036853</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.7270215847454384</v>
+        <v>1.655238754470387e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.01055086077929192</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.655238754470387e-06</v>
+        <v>0.2100263653382492</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.01055086077929192</v>
+        <v>0.04421902030879279</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2100263653382492</v>
+        <v>1.860071828695226</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04421902030879279</v>
+        <v>2.064100216988185</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.842636109817558</v>
+        <v>4.014956387977716</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.064100216988185</v>
+        <v>4.078258792383072e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.014956387977716</v>
+        <v>310309142.1344235</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.078258792383072e-16</v>
+        <v>3.816734196654687e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>310309142.1344235</v>
+        <v>39.27027319117953</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.816734196654687e-07</v>
+        <v>0.0001666875414170689</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>39.27027319117953</v>
+        <v>8.854174984349221</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001666875414170689</v>
+        <v>1.575053004271449</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.854174984349221</v>
+        <v>0.01306770561450091</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.575053004271449</v>
+        <v>3.085071996316183</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01306770561450091</v>
+        <v>0.9632411274951138</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.085071996316183</v>
+        <v>1.57656369376128</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9632411274951138</v>
+        <v>25</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.57656369376128</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.249227955344914</v>
       </c>
     </row>
@@ -7778,72 +7628,66 @@
         <v>4.64724070858666e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.4241122807461407</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.809784050078175</v>
+        <v>1.655843574687989e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.01556693818168071</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.655843574687989e-06</v>
+        <v>0.2075129471231607</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.01556693818168071</v>
+        <v>0.0433008938207895</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2075129471231607</v>
+        <v>1.850155101681051</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0433008938207895</v>
+        <v>2.000120808036319</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.827891404231736</v>
+        <v>3.948022754803071</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.000120808036319</v>
+        <v>4.217714233711034e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.948022754803071</v>
+        <v>303788448.9078029</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.217714233711034e-16</v>
+        <v>3.892347731912347e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>303788448.9078029</v>
+        <v>38.92419720535988</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.892347731912347e-07</v>
+        <v>0.0001470781714590173</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>38.92419720535988</v>
+        <v>9.886715806537996</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001470781714590173</v>
+        <v>1.182745223733973</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.886715806537996</v>
+        <v>0.01437647200485595</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.182745223733973</v>
+        <v>2.962293783064351</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01437647200485595</v>
+        <v>0.9626672472244246</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.962293783064351</v>
+        <v>1.56749899181288</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9626672472244246</v>
+        <v>28</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.56749899181288</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2360749573456071</v>
       </c>
     </row>
@@ -7858,72 +7702,66 @@
         <v>4.71890257797629e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.3954863117078445</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.9080744883956324</v>
+        <v>1.656688668867004e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02051803208302524</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.656688668867004e-06</v>
+        <v>0.2044147470844009</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.02051803208302524</v>
+        <v>0.0422032390023811</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2044147470844009</v>
+        <v>1.832805825043639</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.0422032390023811</v>
+        <v>2.006713939305157</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.805031150101971</v>
+        <v>3.923493009466781</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.006713939305157</v>
+        <v>4.270617537449465e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.923493009466781</v>
+        <v>302533138.1267782</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.270617537449465e-16</v>
+        <v>3.894595385880272e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>302533138.1267782</v>
+        <v>39.0873820486505</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.894595385880272e-07</v>
+        <v>0.0001510672494660227</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>39.0873820486505</v>
+        <v>10.48496692873987</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001510672494660227</v>
+        <v>1.138760151765152</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.48496692873987</v>
+        <v>0.0166075072945527</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.138760151765152</v>
+        <v>2.771703947614336</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0166075072945527</v>
+        <v>0.9616265916147089</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.771703947614336</v>
+        <v>1.574132671871283</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9616265916147089</v>
+        <v>29</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.574132671871283</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2315117794142956</v>
       </c>
     </row>
@@ -7938,72 +7776,66 @@
         <v>4.808706379644808e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.3636194414905251</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.009056853957964</v>
+        <v>1.657768719906278e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02454401612570486</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.657768719906278e-06</v>
+        <v>0.2003259215771623</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.02454401612570486</v>
+        <v>0.04073137819404885</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2003259215771623</v>
+        <v>1.828391686157353</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.04073137819404885</v>
+        <v>1.895481252507806</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.7851639058759</v>
+        <v>4.016222770430371</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.895481252507806</v>
+        <v>5.577553784529676e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.016222770430371</v>
+        <v>238026172.2997881</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.577553784529676e-16</v>
+        <v>4.963326350463581e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>238026172.2997881</v>
+        <v>31.60044456384965</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.963326350463581e-07</v>
+        <v>0.0001496785814988026</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>31.60044456384965</v>
+        <v>9.976680786953658</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001496785814988026</v>
+        <v>1.151208259349372</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.976680786953658</v>
+        <v>0.01489813180834314</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.151208259349372</v>
+        <v>2.801729460279236</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01489813180834314</v>
+        <v>0.9625043821903227</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.801729460279236</v>
+        <v>1.634162092934624</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9625043821903227</v>
+        <v>29</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.634162092934624</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2364078003052055</v>
       </c>
     </row>
@@ -8018,72 +7850,66 @@
         <v>4.907316524014859e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.3283269719554426</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.103637244888276</v>
+        <v>1.659026182203013e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02698024511248177</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.659026182203013e-06</v>
+        <v>0.1956214458353008</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.02698024511248177</v>
+        <v>0.03899500916066958</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1956214458353008</v>
+        <v>1.829620146773495</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03899500916066958</v>
+        <v>1.999311277540401</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.788774027607757</v>
+        <v>3.743056528733028</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.999311277540401</v>
+        <v>6.421353563385785e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.743056528733028</v>
+        <v>207633390.036058</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>6.421353563385785e-16</v>
+        <v>5.687213829623127e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>207633390.036058</v>
+        <v>27.68349846201369</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>5.687213829623127e-07</v>
+        <v>0.0001367188868044849</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>27.68349846201369</v>
+        <v>7.982702540542605</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001367188868044849</v>
+        <v>1.508831033734868</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.982702540542605</v>
+        <v>0.008712211431640608</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.508831033734868</v>
+        <v>3.11254951428877</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.008712211431640608</v>
+        <v>0.9615137715966151</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.11254951428877</v>
+        <v>1.613034862610662</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9615137715966151</v>
+        <v>29</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.613034862610662</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.249414519845024</v>
       </c>
     </row>
@@ -8098,72 +7924,66 @@
         <v>5.004927591724084e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2882198553992883</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.18950737723019</v>
+        <v>1.660398568341581e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02818893350650026</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.660398568341581e-06</v>
+        <v>0.1912088276577182</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.02818893350650026</v>
+        <v>0.03735509024311359</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1912088276577182</v>
+        <v>1.829474786468586</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.03735509024311359</v>
+        <v>1.965670548037604</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.790279003722797</v>
+        <v>3.611544241980789</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.965670548037604</v>
+        <v>6.897528065745086e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.611544241980789</v>
+        <v>189812420.5210461</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>6.897528065745086e-16</v>
+        <v>6.207868456264273e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>189812420.5210461</v>
+        <v>24.85093486763962</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>6.207868456264273e-07</v>
+        <v>0.0001217538921960244</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>24.85093486763962</v>
+        <v>7.225486365850466</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001217538921960244</v>
+        <v>1.971091521473253</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.225486365850466</v>
+        <v>0.006356484982331645</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.971091521473253</v>
+        <v>3.340552408593414</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.006356484982331645</v>
+        <v>0.961510825775767</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.340552408593414</v>
+        <v>1.59482982433858</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.961510825775767</v>
+        <v>16</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.59482982433858</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2626422016491426</v>
       </c>
     </row>
@@ -8178,72 +7998,66 @@
         <v>5.094726372642585e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.2428490629054854</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.266145171914291</v>
+        <v>1.661834236205376e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02855883172150669</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.661834236205376e-06</v>
+        <v>0.1874848242396388</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.02855883172150669</v>
+        <v>0.03596587078223447</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1874848242396388</v>
+        <v>1.838437960344352</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.03596587078223447</v>
+        <v>1.94757027995341</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.796296551654587</v>
+        <v>3.578792431165697</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.94757027995341</v>
+        <v>7.024353102969251e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.578792431165697</v>
+        <v>186277416.6033412</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>7.024353102969251e-16</v>
+        <v>6.339828537837215e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>186277416.6033412</v>
+        <v>24.37399665947411</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>6.339828537837215e-07</v>
+        <v>0.0001129895217514738</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>24.37399665947411</v>
+        <v>7.76396096490701</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001129895217514738</v>
+        <v>1.221023047243879</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.76396096490701</v>
+        <v>0.006810905535415243</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.221023047243879</v>
+        <v>3.228310057627238</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.006810905535415243</v>
+        <v>0.9606911017400427</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.228310057627238</v>
+        <v>1.620142811378946</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9606911017400427</v>
+        <v>11</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.620142811378946</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2612088327508663</v>
       </c>
     </row>
@@ -8258,72 +8072,66 @@
         <v>5.173479951192407e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1927275559047527</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.332510816432442</v>
+        <v>1.663304698812664e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02868903690499954</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.663304698812664e-06</v>
+        <v>0.1843798547972202</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.02868903690499954</v>
+        <v>0.03481866501091015</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1843798547972202</v>
+        <v>1.835137036918685</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.03481866501091015</v>
+        <v>1.877890731545753</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.795395223490352</v>
+        <v>3.60729020737189</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.877890731545753</v>
+        <v>6.913806004556081e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.60729020737189</v>
+        <v>188001539.0396239</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>6.913806004556081e-16</v>
+        <v>6.273612778194188e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>188001539.0396239</v>
+        <v>24.43655603150501</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>6.273612778194188e-07</v>
+        <v>0.0001235144106824374</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>24.43655603150501</v>
+        <v>8.969444699944946</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001235144106824374</v>
+        <v>1.258728445305486</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.969444699944946</v>
+        <v>0.009936850223755815</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.258728445305486</v>
+        <v>3.011127462549972</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.009936850223755815</v>
+        <v>0.9592066944346376</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.011127462549972</v>
+        <v>1.623588578732689</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9592066944346376</v>
+        <v>21</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.623588578732689</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2519460498596818</v>
       </c>
     </row>
@@ -8338,72 +8146,66 @@
         <v>5.240035652576924e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.1385394876424402</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.387193445775258</v>
+        <v>1.664803856772771e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02889004561087243</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.664803856772771e-06</v>
+        <v>0.1817620680009605</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.02889004561087243</v>
+        <v>0.03387155347007988</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1817620680009605</v>
+        <v>1.830060871889821</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.03387155347007988</v>
+        <v>1.859323801512902</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.790608342645463</v>
+        <v>3.677204591121058</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.859323801512902</v>
+        <v>6.653402050987514e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.677204591121058</v>
+        <v>194944418.1804308</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>6.653402050987514e-16</v>
+        <v>6.024633897214378e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>194944418.1804308</v>
+        <v>25.2851408348408</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.024633897214378e-07</v>
+        <v>0.0001309692098555997</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>25.2851408348408</v>
+        <v>9.110196969523123</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001309692098555997</v>
+        <v>1.290234304276901</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.110196969523123</v>
+        <v>0.01086987978663611</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.290234304276901</v>
+        <v>2.983525799617039</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01086987978663611</v>
+        <v>0.9594932499688568</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.983525799617039</v>
+        <v>1.616558156327529</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9594932499688568</v>
+        <v>27</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.616558156327529</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2543086862337432</v>
       </c>
     </row>
@@ -8418,72 +8220,66 @@
         <v>5.292331637503723e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.0805406625224889</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.428465267361249</v>
+        <v>1.666327804275941e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02895539500296912</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.666327804275941e-06</v>
+        <v>0.1797609692692995</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.02895539500296912</v>
+        <v>0.03315158185046042</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1797609692692995</v>
+        <v>1.824550298437421</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.03315158185046042</v>
+        <v>1.808361272854335</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.783948570992676</v>
+        <v>3.812096948880898</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.808361272854335</v>
+        <v>6.190867099105997e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.812096948880898</v>
+        <v>208711947.8333518</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>6.190867099105997e-16</v>
+        <v>5.619446663144467e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>208711947.8333518</v>
+        <v>26.96783630965744</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.619446663144467e-07</v>
+        <v>0.0001293452808828497</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>26.96783630965744</v>
+        <v>8.664160311454328</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001293452808828497</v>
+        <v>1.380396305765069</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.664160311454328</v>
+        <v>0.009709649366151421</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.380396305765069</v>
+        <v>3.070924903290572</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.009709649366151421</v>
+        <v>0.9599863181809735</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.070924903290572</v>
+        <v>1.651749237951053</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9599863181809735</v>
+        <v>27</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.651749237951053</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2878870538676909</v>
       </c>
     </row>
@@ -8498,72 +8294,66 @@
         <v>5.327926367940756e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.01928876557255219</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.454416923598469</v>
+        <v>1.667861191839746e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02866591800656763</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.667861191839746e-06</v>
+        <v>0.1786123063454123</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.02866591800656763</v>
+        <v>0.03272356391666133</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1786123063454123</v>
+        <v>1.821639330926459</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.03272356391666133</v>
+        <v>1.757435397232999</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.780581079382044</v>
+        <v>4.168652792737785</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.757435397232999</v>
+        <v>5.177116126499191e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.168652792737785</v>
+        <v>249228143.1165789</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>5.177116126499191e-16</v>
+        <v>4.711150587618656e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>249228143.1165789</v>
+        <v>32.1574845881431</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>4.711150587618656e-07</v>
+        <v>0.000122406590303576</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>32.1574845881431</v>
+        <v>8.557380109317021</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.000122406590303576</v>
+        <v>1.725394944609753</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.557380109317021</v>
+        <v>0.008963682130366519</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.725394944609753</v>
+        <v>3.271882078164167</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.008963682130366519</v>
+        <v>0.9616679357859192</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.271882078164167</v>
+        <v>1.636475830578651</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9616679357859192</v>
+        <v>38</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.636475830578651</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.3656325450114318</v>
       </c>
     </row>
@@ -8578,72 +8368,66 @@
         <v>5.348177310613188e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.04360002507612284</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.465107314249262</v>
+        <v>1.669376449453209e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02806433232085484</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.669376449453209e-06</v>
+        <v>0.1781829258844406</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.02806433232085484</v>
+        <v>0.03253645311094962</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1781829258844406</v>
+        <v>1.825106731713698</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.03253645311094962</v>
+        <v>1.748227919341824</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.784513372981767</v>
+        <v>4.801889647285247</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.748227919341824</v>
+        <v>3.901710160180209e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.801889647285247</v>
+        <v>340668768.3952968</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.901710160180209e-16</v>
+        <v>3.457951655632622e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>340668768.3952968</v>
+        <v>45.2813791062314</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>3.457951655632622e-07</v>
+        <v>0.0001144529097534726</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>45.2813791062314</v>
+        <v>7.784605670437348</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001144529097534726</v>
+        <v>1.692627531740759</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.784605670437348</v>
+        <v>0.00693585611039836</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.692627531740759</v>
+        <v>3.298056499780636</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.00693585611039836</v>
+        <v>0.961236857338124</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.298056499780636</v>
+        <v>1.585297381131791</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.961236857338124</v>
+        <v>40</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.585297381131791</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.4182262619184077</v>
       </c>
     </row>
@@ -8658,72 +8442,66 @@
         <v>5.355609155886524e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.1071998154303104</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.461325813779038</v>
+        <v>1.670868520785479e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02778740151398744</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.670868520785479e-06</v>
+        <v>0.1780425319865201</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.02778740151398744</v>
+        <v>0.03247102105655409</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1780425319865201</v>
+        <v>1.84351267285741</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.03247102105655409</v>
+        <v>1.8372254357848</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.811306205521724</v>
+        <v>4.5295090170571</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.8372254357848</v>
+        <v>2.356044420847097e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.5295090170571</v>
+        <v>564174415.2334574</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.356044420847097e-16</v>
+        <v>2.09731678922051e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>564174415.2334574</v>
+        <v>74.99119068487602</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.09731678922051e-07</v>
+        <v>0.0001055614876560624</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>74.99119068487602</v>
+        <v>7.161880308939694</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001055614876560624</v>
+        <v>1.542823385314036</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>7.161880308939694</v>
+        <v>0.005414515725951622</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.542823385314036</v>
+        <v>3.290893376643672</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.005414515725951622</v>
+        <v>0.9605401755868407</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.290893376643672</v>
+        <v>1.598387947973227</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9605401755868407</v>
+        <v>40</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.598387947973227</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.4243096172234258</v>
       </c>
     </row>
@@ -8738,72 +8516,66 @@
         <v>5.351377422699353e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.1716886642721935</v>
+        <v>1.623403479282355e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.443059487990395</v>
+        <v>1.672367003711737e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.623403479282355e-07</v>
+        <v>0.02826478628638642</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.672367003711737e-06</v>
+        <v>0.1779997799966423</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.02826478628638642</v>
+        <v>0.03248267946459914</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1779997799966423</v>
+        <v>1.871386998177255</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03248267946459914</v>
+        <v>2.001055671596617</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.852902818758726</v>
+        <v>3.96808706799984</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.001055671596617</v>
+        <v>2.695147260974821e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.96808706799984</v>
+        <v>494363003.2094733</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.695147260974821e-16</v>
+        <v>2.407021676626407e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>494363003.2094733</v>
+        <v>65.86799190628588</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.407021676626407e-07</v>
+        <v>0.0001025936268182628</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>65.86799190628588</v>
+        <v>7.260642241228815</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001025936268182628</v>
+        <v>1.521056858991903</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.260642241228815</v>
+        <v>0.005408420607926455</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.521056858991903</v>
+        <v>3.35976734288262</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.005408420607926455</v>
+        <v>0.9603156228070692</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.35976734288262</v>
+        <v>1.535298598529136</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9603156228070692</v>
+        <v>33</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.535298598529136</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.4428435721444378</v>
       </c>
     </row>
@@ -9180,7 +8952,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.48285311043711</v>
+        <v>1.497117425630392</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.240818801235764</v>
@@ -9269,7 +9041,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.502861147860248</v>
+        <v>1.514909228703927</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.092672757543209</v>
@@ -9358,7 +9130,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.544843612409634</v>
+        <v>1.554503249042761</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.124532922284982</v>
@@ -9447,7 +9219,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.588379665244946</v>
+        <v>1.596035782026467</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.157922133645458</v>
@@ -9536,7 +9308,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.652031011996436</v>
+        <v>1.650831524119942</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.099645234733003</v>
@@ -9625,7 +9397,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.653789985510653</v>
+        <v>1.654426070344416</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.19572860038595</v>
@@ -9714,7 +9486,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.655912613674238</v>
+        <v>1.649528969909951</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.244811921452743</v>
@@ -9803,7 +9575,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.722048111810455</v>
+        <v>1.710898391042239</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.766757884798309</v>
@@ -9892,7 +9664,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.703490767854866</v>
+        <v>1.701759272247316</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.592330430516867</v>
@@ -9981,7 +9753,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.760179217625818</v>
+        <v>1.750439520272216</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.575256593457089</v>
@@ -10070,7 +9842,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.763479083657658</v>
+        <v>1.754796231130748</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.747679349250483</v>
@@ -10159,7 +9931,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.73165179291285</v>
+        <v>1.727407898388314</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.820355663532757</v>
@@ -10248,7 +10020,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.722786664808758</v>
+        <v>1.722468435102554</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.907474208481504</v>
@@ -10337,7 +10109,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.718283475499085</v>
+        <v>1.720225709034324</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.727196365135796</v>
@@ -10426,7 +10198,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.720438710972174</v>
+        <v>1.724890725707357</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.661237214093517</v>
@@ -10515,7 +10287,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.740687035783914</v>
+        <v>1.747119616360745</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.802703526965793</v>
@@ -10604,7 +10376,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.722650409730109</v>
+        <v>1.740449239488893</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.829914291394474</v>
@@ -10693,7 +10465,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.717281028350314</v>
+        <v>1.737476768237146</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.825389434016057</v>
@@ -10782,7 +10554,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.713020788806759</v>
+        <v>1.734151336409042</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.826182642833543</v>
@@ -10871,7 +10643,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.675812949747233</v>
+        <v>1.693413222318131</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.637603553586569</v>
@@ -10960,7 +10732,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.672875053687012</v>
+        <v>1.700317680903508</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.725018281683889</v>
@@ -11049,7 +10821,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.681067570254108</v>
+        <v>1.712062898216935</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.741343983089912</v>
@@ -11138,7 +10910,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.680227310315689</v>
+        <v>1.711072928761821</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.738139017126592</v>
@@ -11227,7 +10999,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.713047547570813</v>
+        <v>1.743015928159236</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.767542994829198</v>
@@ -11316,7 +11088,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.72034064919296</v>
+        <v>1.751269030978684</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.726441061671679</v>
@@ -11405,7 +11177,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.719235129555171</v>
+        <v>1.750250895653815</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.767415485611195</v>
@@ -11494,7 +11266,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.733211387026671</v>
+        <v>1.755937644729812</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.64644522936478</v>
@@ -11583,7 +11355,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.730255794096391</v>
+        <v>1.760417289907127</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.825090880777984</v>
@@ -11672,7 +11444,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.733559341015723</v>
+        <v>1.760737041451284</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.91545994315824</v>
@@ -11761,7 +11533,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.689863691308276</v>
+        <v>1.715439170894289</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.786173710872527</v>
@@ -11850,7 +11622,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.66502544148644</v>
+        <v>1.685558511952886</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.709808274862548</v>
@@ -11939,7 +11711,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.623685720832819</v>
+        <v>1.644106212097365</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.571926088393296</v>
@@ -12028,7 +11800,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.606615852210484</v>
+        <v>1.631631268428765</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.627286880359702</v>
@@ -12117,7 +11889,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.587020762362682</v>
+        <v>1.614179067521228</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.730242616916421</v>
@@ -12206,7 +11978,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.588675738821041</v>
+        <v>1.616060107193046</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.687426628826166</v>
@@ -12295,7 +12067,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.570325204554639</v>
+        <v>1.588635671485355</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.497300017454726</v>
@@ -12384,7 +12156,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52351587120008</v>
+        <v>1.548353945896549</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.65840086800562</v>
@@ -12473,7 +12245,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.494664956248348</v>
+        <v>1.526309839115924</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.591163641014377</v>
@@ -12562,7 +12334,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.476392219932002</v>
+        <v>1.507429994973874</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.568221891620829</v>
@@ -12651,7 +12423,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.464577174612919</v>
+        <v>1.492746314918659</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.581732495664986</v>
@@ -12740,7 +12512,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.457716969262756</v>
+        <v>1.487696052980788</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.591965473750375</v>
@@ -12829,7 +12601,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.461292895770445</v>
+        <v>1.492701791850929</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.497677425549105</v>
@@ -12918,7 +12690,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.462894461755329</v>
+        <v>1.492094335661892</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.579003371880497</v>
@@ -13007,7 +12779,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.453178570657293</v>
+        <v>1.483917072679561</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.479496193142317</v>
@@ -13096,7 +12868,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.471866459108345</v>
+        <v>1.504499057247798</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.336204792964072</v>
@@ -13185,7 +12957,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.481782166378519</v>
+        <v>1.517252227050935</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.36111017011012</v>
@@ -13274,7 +13046,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.527819575268191</v>
+        <v>1.560884788544398</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.429482681711256</v>
@@ -13363,7 +13135,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.533337128214653</v>
+        <v>1.566467483141799</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.407264661491136</v>
@@ -13452,7 +13224,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.544620702267627</v>
+        <v>1.578376123076505</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.373415514205017</v>
@@ -13541,7 +13313,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.575230769874153</v>
+        <v>1.610944802684535</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.402703077996754</v>
@@ -13630,7 +13402,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.606511824676397</v>
+        <v>1.64279111918805</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.283926722496523</v>
@@ -13719,7 +13491,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.635011911843118</v>
+        <v>1.672884232401374</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.350565778944219</v>
@@ -13808,7 +13580,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.636623789053186</v>
+        <v>1.675872264751792</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.780542250603004</v>
@@ -13897,7 +13669,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.666846086758557</v>
+        <v>1.695681034109968</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.125135274571774</v>
@@ -13986,7 +13758,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.675809369057042</v>
+        <v>1.709140619021823</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.148773066506623</v>
@@ -14075,7 +13847,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.678775608443019</v>
+        <v>1.708281831719523</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.161614209246129</v>
@@ -14164,7 +13936,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.677337150454365</v>
+        <v>1.706374269145919</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.235371151047707</v>
@@ -14253,7 +14025,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.68127085133988</v>
+        <v>1.706196512678028</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.176589128229545</v>
@@ -14342,7 +14114,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.640925889045415</v>
+        <v>1.675461923449733</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.190392864616672</v>
@@ -14431,7 +14203,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.620631161990814</v>
+        <v>1.655172490502693</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.215359277628984</v>
@@ -14520,7 +14292,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.633979275152896</v>
+        <v>1.662104209212928</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.193057765623537</v>
@@ -14609,7 +14381,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.612610433407387</v>
+        <v>1.64752753364045</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.217476375342416</v>
@@ -14698,7 +14470,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.581277425551212</v>
+        <v>1.620451205954811</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.156436943402677</v>
@@ -14787,7 +14559,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.573369953592655</v>
+        <v>1.612406449798885</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.195267103553387</v>
@@ -14876,7 +14648,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.56446140408436</v>
+        <v>1.597817777419909</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.174016451258481</v>
@@ -14965,7 +14737,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.521530999772952</v>
+        <v>1.560456293102368</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.194818896360895</v>
@@ -15054,7 +14826,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.534731484285762</v>
+        <v>1.573091212667282</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.158989219641749</v>
@@ -15143,7 +14915,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.566844803746098</v>
+        <v>1.602355663644452</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.111391795341479</v>
@@ -15232,7 +15004,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.541148548214732</v>
+        <v>1.587298742742656</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.64255280581192</v>
@@ -15321,7 +15093,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.533427052481118</v>
+        <v>1.579314837777154</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.644669960347762</v>
@@ -15410,7 +15182,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.549072937469625</v>
+        <v>1.594937238956212</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.632320745269256</v>
@@ -15499,7 +15271,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.542238660910967</v>
+        <v>1.587388147938108</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.54220715326188</v>
@@ -15588,7 +15360,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.530404351739123</v>
+        <v>1.579084992059452</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.501234086786576</v>
@@ -15677,7 +15449,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.544383708992304</v>
+        <v>1.593959075382857</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.58838707893911</v>
@@ -15766,7 +15538,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.551860812984142</v>
+        <v>1.605793706838052</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.568985278814387</v>
@@ -15855,7 +15627,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.5733214627035</v>
+        <v>1.630281594395519</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.724213566517398</v>
@@ -15944,7 +15716,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.590184890564255</v>
+        <v>1.645144062946318</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.359523028265267</v>
@@ -16033,7 +15805,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.607653672689474</v>
+        <v>1.661479248730961</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.732939066049534</v>
@@ -16122,7 +15894,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.625323542135868</v>
+        <v>1.679806186784311</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.54425535629808</v>
@@ -16211,7 +15983,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.653131604726487</v>
+        <v>1.70272519381244</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.578267298772546</v>
@@ -16300,7 +16072,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.703556188364677</v>
+        <v>1.750561401463356</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.842287465058883</v>
@@ -16586,7 +16358,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.626858667367654</v>
+        <v>1.635497162186132</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.334221052904447</v>
@@ -16675,7 +16447,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.63289457183472</v>
+        <v>1.630887765471025</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.259866620831843</v>
@@ -16764,7 +16536,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.651642391068643</v>
+        <v>1.642807414665124</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.829187558854348</v>
@@ -16853,7 +16625,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.68600189053887</v>
+        <v>1.67358578952479</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.424401467143068</v>
@@ -16942,7 +16714,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.720556121905525</v>
+        <v>1.704752655609348</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.149471690803177</v>
@@ -17031,7 +16803,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.733799180940829</v>
+        <v>1.713723129995286</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.114836102789875</v>
@@ -17120,7 +16892,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.726406370563714</v>
+        <v>1.69632433944334</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.187446580757453</v>
@@ -17209,7 +16981,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.731101341625686</v>
+        <v>1.695119233797445</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.936243822287</v>
@@ -17298,7 +17070,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.723628189158614</v>
+        <v>1.682517047803313</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.565443083237766</v>
@@ -17387,7 +17159,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.73806092478926</v>
+        <v>1.693006329045089</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.612962408767989</v>
@@ -17476,7 +17248,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.739460193748475</v>
+        <v>1.696808649175195</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.092791604592466</v>
@@ -17565,7 +17337,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.730027261086319</v>
+        <v>1.689218411434643</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.948249512968028</v>
@@ -17654,7 +17426,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.731747432677791</v>
+        <v>1.689338398575628</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.684467307677321</v>
@@ -17743,7 +17515,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.722942450332732</v>
+        <v>1.685818967622585</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.444895794603394</v>
@@ -17832,7 +17604,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.736012799746216</v>
+        <v>1.700277784452947</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.518948203783937</v>
@@ -17921,7 +17693,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.757009802545746</v>
+        <v>1.72324465698939</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.226423329717149</v>
@@ -18010,7 +17782,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.756488969301863</v>
+        <v>1.733361106192093</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.219645165421195</v>
@@ -18099,7 +17871,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.753895244377926</v>
+        <v>1.736326965871198</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.028918208121672</v>
@@ -18188,7 +17960,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.746447186765903</v>
+        <v>1.727685873702444</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.100921523068231</v>
@@ -18277,7 +18049,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.748570733187275</v>
+        <v>1.730199266511441</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.838705582986509</v>
@@ -18366,7 +18138,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.771322560727269</v>
+        <v>1.758372003108231</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.759396765954247</v>
@@ -18455,7 +18227,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.783626723486768</v>
+        <v>1.776839888941277</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.792635167109073</v>
@@ -18544,7 +18316,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.78711976171034</v>
+        <v>1.78172187802249</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.695849126251735</v>
@@ -18633,7 +18405,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.797578070134698</v>
+        <v>1.797241492537576</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.900326334463934</v>
@@ -18722,7 +18494,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.79869847964915</v>
+        <v>1.801015386908166</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.910944585455832</v>
@@ -18811,7 +18583,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.802025401488166</v>
+        <v>1.80601785763073</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.928426518683482</v>
@@ -18900,7 +18672,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.809377275772152</v>
+        <v>1.811433447985271</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.010620591257577</v>
@@ -18989,7 +18761,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.818171385790232</v>
+        <v>1.820792191605932</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.953879516189612</v>
@@ -19078,7 +18850,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.84909953962506</v>
+        <v>1.858038869627239</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.751732305972773</v>
@@ -19167,7 +18939,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.829563635687122</v>
+        <v>1.841185938182847</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.654117515254607</v>
@@ -19256,7 +19028,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.792714398796606</v>
+        <v>1.805058040164819</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.798206474952697</v>
@@ -19345,7 +19117,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.789275494846621</v>
+        <v>1.798546779043241</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.683099399491736</v>
@@ -19434,7 +19206,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.777633206184264</v>
+        <v>1.787785281931604</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.760031493904496</v>
@@ -19523,7 +19295,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.769922767461477</v>
+        <v>1.777958607243104</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.701654071547572</v>
@@ -19612,7 +19384,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.751237915913376</v>
+        <v>1.760666292065312</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.577076476038739</v>
@@ -19701,7 +19473,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.738518878522176</v>
+        <v>1.742314759399925</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.506126034865719</v>
@@ -19790,7 +19562,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.736963701921578</v>
+        <v>1.741004977826693</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.683111519846985</v>
@@ -19879,7 +19651,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.724824804348823</v>
+        <v>1.728781929344315</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.631502661773179</v>
@@ -19968,7 +19740,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.723805018364887</v>
+        <v>1.728690119975188</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.489603244791177</v>
@@ -20057,7 +19829,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.723773084632805</v>
+        <v>1.723432761173739</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.533716020103711</v>
@@ -20146,7 +19918,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.718874261183138</v>
+        <v>1.716102667227974</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.547881806181078</v>
@@ -20235,7 +20007,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.708210298032353</v>
+        <v>1.705212676744541</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.560771493479914</v>
@@ -20324,7 +20096,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.697257822279675</v>
+        <v>1.692341752807548</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.586347847858076</v>
@@ -20413,7 +20185,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.656924705364211</v>
+        <v>1.640157527279044</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.591478571976105</v>
@@ -20502,7 +20274,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.665197007511</v>
+        <v>1.645535387975104</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.458568039734801</v>
@@ -20591,7 +20363,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.69057461293128</v>
+        <v>1.669343959156271</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.077691367674905</v>
@@ -20680,7 +20452,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.70200576393323</v>
+        <v>1.681493973619135</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.685111465265599</v>
@@ -20769,7 +20541,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.706300700873822</v>
+        <v>1.684345185843671</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.780809013114719</v>
@@ -20858,7 +20630,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.701085648639149</v>
+        <v>1.684838196579317</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.147829652439312</v>
@@ -20947,7 +20719,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.720360703029971</v>
+        <v>1.706533195903942</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.049926358652702</v>
@@ -21036,7 +20808,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.728452367760575</v>
+        <v>1.720116268493632</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.343295621078561</v>
@@ -21125,7 +20897,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.731649459854506</v>
+        <v>1.720477229857138</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.190537482059152</v>
@@ -21214,7 +20986,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.736167165911032</v>
+        <v>1.728618412112323</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.208939151101319</v>
@@ -21303,7 +21075,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.745791591769346</v>
+        <v>1.72672463914155</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.864597888916648</v>
@@ -21392,7 +21164,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.748999375854289</v>
+        <v>1.736877960629225</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.90293415864963</v>
@@ -21481,7 +21253,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.738691119845507</v>
+        <v>1.722046302823335</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.912868768503825</v>
@@ -21570,7 +21342,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.739553094415732</v>
+        <v>1.726152879200793</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.936542947985715</v>
@@ -21659,7 +21431,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.74192771439041</v>
+        <v>1.728192835258213</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.928941678526211</v>
@@ -21748,7 +21520,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.733730405117979</v>
+        <v>1.717174304044456</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.916844136957176</v>
@@ -21837,7 +21609,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.743247256359274</v>
+        <v>1.725625122376153</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.92608353797324</v>
@@ -21926,7 +21698,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.741463352666116</v>
+        <v>1.72481850680016</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.905519862832463</v>
@@ -22015,7 +21787,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.743846229933135</v>
+        <v>1.731723726944227</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.903394388609063</v>
@@ -22104,7 +21876,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.746835390146281</v>
+        <v>1.73293571602989</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.92210600023851</v>
@@ -22193,7 +21965,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.764779030042073</v>
+        <v>1.745916852726819</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.92638648058776</v>
@@ -22282,7 +22054,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.764340240834802</v>
+        <v>1.745374672987853</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.923927787186786</v>
@@ -22371,7 +22143,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.745736075826344</v>
+        <v>1.730122521673851</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.918752442242197</v>
@@ -22460,7 +22232,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.752877491661381</v>
+        <v>1.737829870095557</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.920252301298349</v>
@@ -22549,7 +22321,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.756057249148864</v>
+        <v>1.741190491989738</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.904119128260452</v>
@@ -22638,7 +22410,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.743627621279356</v>
+        <v>1.736804271734973</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.026736247295474</v>
@@ -22727,7 +22499,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.734536951282059</v>
+        <v>1.731684777522134</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.782592280751262</v>
@@ -22816,7 +22588,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.753733289762296</v>
+        <v>1.752678265205301</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.153416562019693</v>
@@ -22905,7 +22677,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.746874249876095</v>
+        <v>1.745285935431445</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.775098892481763</v>
@@ -22994,7 +22766,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.740795278619218</v>
+        <v>1.741162374764378</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.806570228511029</v>
@@ -23083,7 +22855,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.739640929894057</v>
+        <v>1.745322558208303</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.359393171615065</v>
@@ -23172,7 +22944,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.733747422479359</v>
+        <v>1.741586506557786</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.533252309326756</v>
@@ -23261,7 +23033,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.745908385755787</v>
+        <v>1.753842567817445</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.570380259178063</v>
@@ -23350,7 +23122,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.745766986603721</v>
+        <v>1.757899211858241</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.491474115762118</v>
@@ -23439,7 +23211,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.74582457963966</v>
+        <v>1.761036854247575</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.184214714082731</v>
@@ -23528,7 +23300,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.743128461414396</v>
+        <v>1.75700673214063</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.22881219275661</v>
@@ -23617,7 +23389,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.76190534032196</v>
+        <v>1.771156903426021</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.251195913338027</v>
@@ -23706,7 +23478,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.791349699684717</v>
+        <v>1.796536474537517</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.579560524776733</v>
@@ -23992,7 +23764,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.700639175856564</v>
+        <v>1.700683649181761</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.358332370756742</v>
@@ -24081,7 +23853,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.706415711120616</v>
+        <v>1.707061002326742</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.434871755049758</v>
@@ -24170,7 +23942,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.728834537243288</v>
+        <v>1.726815933693951</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.30947527992549</v>
@@ -24259,7 +24031,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.735787681731456</v>
+        <v>1.736209755921043</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.290855069918063</v>
@@ -24348,7 +24120,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.74733524370702</v>
+        <v>1.7468058784012</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.298656350135319</v>
@@ -24437,7 +24209,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.734306583363531</v>
+        <v>1.734134602407563</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.232055850575914</v>
@@ -24526,7 +24298,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.682031711156863</v>
+        <v>1.670750839481395</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.244363984492748</v>
@@ -24615,7 +24387,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.689554235800482</v>
+        <v>1.662302078187033</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.335358346824403</v>
@@ -24704,7 +24476,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.671238560255879</v>
+        <v>1.645532445351446</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.206438413952405</v>
@@ -24793,7 +24565,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.667546466455856</v>
+        <v>1.639344180254402</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.100896802268381</v>
@@ -24882,7 +24654,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.670426143906551</v>
+        <v>1.643330105975194</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.326755614853566</v>
@@ -24971,7 +24743,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.674331176425963</v>
+        <v>1.644625388693565</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.124967996656274</v>
@@ -25060,7 +24832,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.659410336234532</v>
+        <v>1.634325726785722</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.249452841546333</v>
@@ -25149,7 +24921,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.670169249442153</v>
+        <v>1.64679199850323</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.041954415914604</v>
@@ -25238,7 +25010,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.686742016666208</v>
+        <v>1.665117471844856</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.16215445033732</v>
@@ -25327,7 +25099,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.720712836074451</v>
+        <v>1.708520613201778</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.690127211265487</v>
@@ -25416,7 +25188,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.717040613735721</v>
+        <v>1.706852113204973</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.880508846338609</v>
@@ -25505,7 +25277,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.68901290874906</v>
+        <v>1.684577070763186</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.860584011195812</v>
@@ -25594,7 +25366,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.686777915608103</v>
+        <v>1.681787823932637</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.855505127330087</v>
@@ -25683,7 +25455,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.680351974542179</v>
+        <v>1.675372466907629</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.500368656266398</v>
@@ -25772,7 +25544,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.685972020810456</v>
+        <v>1.693920417917377</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.535646880253144</v>
@@ -25861,7 +25633,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.697650493031981</v>
+        <v>1.710941700586026</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.52157356065389</v>
@@ -25950,7 +25722,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.693161823334358</v>
+        <v>1.710673930520396</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.585090205541285</v>
@@ -26039,7 +25811,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.709018495722733</v>
+        <v>1.724431780968152</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.492128761575358</v>
@@ -26128,7 +25900,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.711303518867397</v>
+        <v>1.726922097374838</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.481153259964249</v>
@@ -26217,7 +25989,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.708445304291673</v>
+        <v>1.725014905724215</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.545402672384949</v>
@@ -26306,7 +26078,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.712884381918908</v>
+        <v>1.726273589620063</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.529335513105098</v>
@@ -26395,7 +26167,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.707856765925992</v>
+        <v>1.726535492407204</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.536997112493309</v>
@@ -26484,7 +26256,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.768619691640217</v>
+        <v>1.79118693665486</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.790341748618795</v>
@@ -26573,7 +26345,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.762164193708767</v>
+        <v>1.782987499388082</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.729680852450829</v>
@@ -26662,7 +26434,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.73654015268765</v>
+        <v>1.753602482131878</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.67160874464349</v>
@@ -26751,7 +26523,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.723440396379295</v>
+        <v>1.739751161674355</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.649824662089221</v>
@@ -26840,7 +26612,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.731832432911162</v>
+        <v>1.741276710062838</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.637428816158585</v>
@@ -26929,7 +26701,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.724251714691527</v>
+        <v>1.733583962210167</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.668953643150423</v>
@@ -27018,7 +26790,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.739237704174526</v>
+        <v>1.742980897868782</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.485679096034961</v>
@@ -27107,7 +26879,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.734957642053324</v>
+        <v>1.735491320468587</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.46054154228989</v>
@@ -27196,7 +26968,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.721682163291906</v>
+        <v>1.723577013216971</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.437615684821218</v>
@@ -27285,7 +27057,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.72285001538391</v>
+        <v>1.726708794339982</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.558086132523054</v>
@@ -27374,7 +27146,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.71811888173124</v>
+        <v>1.726302869669305</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.570381809106063</v>
@@ -27463,7 +27235,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.720987727814032</v>
+        <v>1.72833777177436</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.610420795689344</v>
@@ -27552,7 +27324,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.720957215635661</v>
+        <v>1.730625193949195</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.605640529289533</v>
@@ -27641,7 +27413,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.721167756092172</v>
+        <v>1.731911764158462</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.551751496567714</v>
@@ -27730,7 +27502,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.728302917197669</v>
+        <v>1.734147923848468</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.536855267607938</v>
@@ -27819,7 +27591,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.64707254109264</v>
+        <v>1.64371141438931</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.350604236580625</v>
@@ -27908,7 +27680,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.638946954538092</v>
+        <v>1.637117412705121</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.959598757116667</v>
@@ -27997,7 +27769,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.641265544409993</v>
+        <v>1.639396332551936</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.09827236016867</v>
@@ -28086,7 +27858,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.66795258248051</v>
+        <v>1.662680040599515</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.927307358877652</v>
@@ -28175,7 +27947,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.667352244775868</v>
+        <v>1.664075568935069</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.790335489955829</v>
@@ -28264,7 +28036,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.673035948777668</v>
+        <v>1.665953906436513</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.720911193485829</v>
@@ -28353,7 +28125,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.68423399660692</v>
+        <v>1.673580696163613</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.752211236089229</v>
@@ -28442,7 +28214,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.688583451299239</v>
+        <v>1.679047261935024</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.544166626460985</v>
@@ -28531,7 +28303,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.703209407949304</v>
+        <v>1.689944626783645</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.735952409445377</v>
@@ -28620,7 +28392,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.70701887633192</v>
+        <v>1.697852002173087</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.663690206896701</v>
@@ -28709,7 +28481,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.724392659987385</v>
+        <v>1.710783593706866</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.817097128412183</v>
@@ -28798,7 +28570,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.73460518402916</v>
+        <v>1.719769050321679</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.838390646881081</v>
@@ -28887,7 +28659,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.7231338011119</v>
+        <v>1.707508497121945</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.850604461477269</v>
@@ -28976,7 +28748,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.716285239477178</v>
+        <v>1.701555253634214</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.834304208529282</v>
@@ -29065,7 +28837,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.707976162325624</v>
+        <v>1.696057922828711</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.817337820461744</v>
@@ -29154,7 +28926,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.688309118983272</v>
+        <v>1.680325292012112</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.82295427745381</v>
@@ -29243,7 +29015,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.674181628265946</v>
+        <v>1.667898791092323</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.815412939740306</v>
@@ -29332,7 +29104,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.684763639331112</v>
+        <v>1.675860682650234</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.835322151818637</v>
@@ -29421,7 +29193,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.684928130195935</v>
+        <v>1.675337579468872</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.818959659862895</v>
@@ -29510,7 +29282,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.683403679800396</v>
+        <v>1.676830511576655</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.823322977500848</v>
@@ -29599,7 +29371,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.692945041988395</v>
+        <v>1.688238389285829</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.829923475344828</v>
@@ -29688,7 +29460,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.689717051835983</v>
+        <v>1.682481272586683</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.818525972696546</v>
@@ -29777,7 +29549,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.664059417912837</v>
+        <v>1.654746980746619</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.844740084703993</v>
@@ -29866,7 +29638,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.674606464275116</v>
+        <v>1.663053790090345</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.846560093470389</v>
@@ -29955,7 +29727,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.679188475330549</v>
+        <v>1.663992618125273</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.808182997605532</v>
@@ -30044,7 +29816,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.661168345294855</v>
+        <v>1.652788716494507</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.483822769566606</v>
@@ -30133,7 +29905,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.644230128410379</v>
+        <v>1.635894353720039</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.191295709571848</v>
@@ -30222,7 +29994,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.667776681719908</v>
+        <v>1.659855690914482</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.036494192877093</v>
@@ -30311,7 +30083,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.659798700198049</v>
+        <v>1.653291754004284</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.909735296713325</v>
@@ -30400,7 +30172,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.663095323725951</v>
+        <v>1.651302388303221</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.772585178666569</v>
@@ -30489,7 +30261,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.670659528728959</v>
+        <v>1.656310590237153</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.084527852468475</v>
@@ -30578,7 +30350,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.677136314379205</v>
+        <v>1.664372340215331</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.27630299391214</v>
@@ -30667,7 +30439,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.668310482337135</v>
+        <v>1.661928761596675</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.210718782115954</v>
@@ -30756,7 +30528,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.666429487969368</v>
+        <v>1.662803659516302</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.971616239138008</v>
@@ -30845,7 +30617,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.666767494282103</v>
+        <v>1.660380988721784</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.957718721035228</v>
@@ -30934,7 +30706,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.673059879943065</v>
+        <v>1.665246737792322</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.063174200867114</v>
@@ -31023,7 +30795,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.686175801037293</v>
+        <v>1.680701172514793</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.791286946955579</v>
@@ -31112,7 +30884,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.716802314561996</v>
+        <v>1.714742656228129</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.50980802485787</v>
@@ -31398,7 +31170,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.672218068283478</v>
+        <v>1.665895166375837</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.311141232336976</v>
@@ -31487,7 +31259,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.675368503990801</v>
+        <v>1.669309674075708</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.269865773831644</v>
@@ -31576,7 +31348,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.669984823883312</v>
+        <v>1.663507459341848</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.259091712214205</v>
@@ -31665,7 +31437,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.662940930520638</v>
+        <v>1.657392672196013</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.164756994020752</v>
@@ -31754,7 +31526,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.676283313623194</v>
+        <v>1.670515136611546</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.221045469106089</v>
@@ -31843,7 +31615,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.665638445468018</v>
+        <v>1.665402059246545</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.190664309864493</v>
@@ -31932,7 +31704,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.669240431953652</v>
+        <v>1.667312029424759</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.155130930953046</v>
@@ -32021,7 +31793,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.705261091060343</v>
+        <v>1.689457070612142</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.216524794269618</v>
@@ -32110,7 +31882,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.682221684621343</v>
+        <v>1.667565995859092</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.268243719300624</v>
@@ -32199,7 +31971,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.679521504700475</v>
+        <v>1.66317510353441</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.068120007700891</v>
@@ -32288,7 +32060,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.669209134453634</v>
+        <v>1.652352075524308</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.280704208436468</v>
@@ -32377,7 +32149,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.654737623799011</v>
+        <v>1.638964097060049</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.821521115704777</v>
@@ -32466,7 +32238,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.649675670256463</v>
+        <v>1.637827399287606</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.121520361204408</v>
@@ -32555,7 +32327,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.640385353760591</v>
+        <v>1.631339160117695</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.297115720753469</v>
@@ -32644,7 +32416,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.696498182376527</v>
+        <v>1.684245077439353</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.541820291660762</v>
@@ -32733,7 +32505,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.789860556743804</v>
+        <v>1.783806891486873</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.718928964863861</v>
@@ -32822,7 +32594,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.791632681726671</v>
+        <v>1.791416219110683</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.796929198493589</v>
@@ -32911,7 +32683,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.776534089649506</v>
+        <v>1.781583554770296</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.874127099135876</v>
@@ -33000,7 +32772,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.780559258887286</v>
+        <v>1.784632927154419</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.732845473656906</v>
@@ -33089,7 +32861,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.764826326833829</v>
+        <v>1.769896701964394</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.555000970389185</v>
@@ -33178,7 +32950,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.743595799012963</v>
+        <v>1.759001686400751</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.78835854692076</v>
@@ -33267,7 +33039,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.745862802147046</v>
+        <v>1.763338140242568</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.702983867996818</v>
@@ -33356,7 +33128,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.745742256868871</v>
+        <v>1.764055513586501</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.710916036175789</v>
@@ -33445,7 +33217,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.75838562628747</v>
+        <v>1.776805549464594</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.718632029405179</v>
@@ -33534,7 +33306,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.767600691470062</v>
+        <v>1.784445228604824</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.703003198922809</v>
@@ -33623,7 +33395,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.774100070942824</v>
+        <v>1.792993241352199</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.69828095312964</v>
@@ -33712,7 +33484,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.779549059674132</v>
+        <v>1.797962323812129</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.678105553474728</v>
@@ -33801,7 +33573,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.780868595072598</v>
+        <v>1.796840989807944</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.760603740289659</v>
@@ -33890,7 +33662,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.792371026595038</v>
+        <v>1.810796835044961</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.791692387540753</v>
@@ -33979,7 +33751,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.778674714952372</v>
+        <v>1.806008723009041</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.764917569133702</v>
@@ -34068,7 +33840,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.698153181773996</v>
+        <v>1.725698837740979</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.52533617867434</v>
@@ -34157,7 +33929,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.684896794273218</v>
+        <v>1.707247919305277</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.389519732835192</v>
@@ -34246,7 +34018,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.688762361226739</v>
+        <v>1.709508994273626</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.412793315315222</v>
@@ -34335,7 +34107,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.685117070120669</v>
+        <v>1.705878228964068</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.458769954137129</v>
@@ -34424,7 +34196,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.696151847438804</v>
+        <v>1.702105915451844</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.907234060292049</v>
@@ -34513,7 +34285,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.708801054762982</v>
+        <v>1.711943603185387</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.982456342103042</v>
@@ -34602,7 +34374,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.712866866574719</v>
+        <v>1.716078844344078</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.334081793109517</v>
@@ -34691,7 +34463,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.714274042554266</v>
+        <v>1.719578472261589</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.277082974549645</v>
@@ -34780,7 +34552,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.697955598237408</v>
+        <v>1.706949262857592</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.35700072775435</v>
@@ -34869,7 +34641,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.69182491335592</v>
+        <v>1.701188222023584</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.251713990770156</v>
@@ -34958,7 +34730,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.688054516417313</v>
+        <v>1.696656255768055</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.225369451437432</v>
@@ -35047,7 +34819,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.68465324313636</v>
+        <v>1.695344088470827</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.282998870819136</v>
@@ -35136,7 +34908,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.685877958382626</v>
+        <v>1.699066580138984</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.18226803464322</v>
@@ -35225,7 +34997,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.670897447159764</v>
+        <v>1.678091401165602</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.97467389394271</v>
@@ -35314,7 +35086,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.674864481391893</v>
+        <v>1.676962053831348</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.387417694794046</v>
@@ -35403,7 +35175,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.682290078236319</v>
+        <v>1.684052650798209</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.06716538883281</v>
@@ -35492,7 +35264,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.692002515120002</v>
+        <v>1.690092553206361</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.914036148011418</v>
@@ -35581,7 +35353,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.700430710294098</v>
+        <v>1.694619198114072</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.974097578175575</v>
@@ -35670,7 +35442,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.68132147620013</v>
+        <v>1.681685242131595</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.914250277544987</v>
@@ -35759,7 +35531,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.695801742627117</v>
+        <v>1.698857812747975</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.870212148932803</v>
@@ -35848,7 +35620,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.691147521442729</v>
+        <v>1.693834801877222</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.802622456783742</v>
@@ -35937,7 +35709,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.678952593765641</v>
+        <v>1.682648725230692</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.741572286327459</v>
@@ -36026,7 +35798,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.67809844419976</v>
+        <v>1.677872522696461</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.698029314159109</v>
@@ -36115,7 +35887,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.702571339943168</v>
+        <v>1.693922666381318</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.811112466436259</v>
@@ -36204,7 +35976,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.712292867501434</v>
+        <v>1.704294800459363</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.859784759003822</v>
@@ -36293,7 +36065,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.704737784315631</v>
+        <v>1.702114289039428</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.859240321861962</v>
@@ -36382,7 +36154,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.706166323105722</v>
+        <v>1.70140034886397</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.877384155297732</v>
@@ -36471,7 +36243,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.695586171915447</v>
+        <v>1.694794256652637</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.871277992450812</v>
@@ -36560,7 +36332,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.690935196186801</v>
+        <v>1.690020328600061</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.855825306348312</v>
@@ -36649,7 +36421,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.688059075349193</v>
+        <v>1.687041189076974</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.871650432647542</v>
@@ -36738,7 +36510,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.690148645146794</v>
+        <v>1.687872111543567</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.870333172185721</v>
@@ -36827,7 +36599,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.691714543222523</v>
+        <v>1.692172443661198</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.856847335759901</v>
@@ -36916,7 +36688,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.689866267516939</v>
+        <v>1.692076870211997</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.873117420226042</v>
@@ -37005,7 +36777,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.704567924752547</v>
+        <v>1.703896543043943</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.869249918894408</v>
@@ -37094,7 +36866,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.708804525053164</v>
+        <v>1.704635320377266</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.865182951868102</v>
@@ -37183,7 +36955,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.691158721718297</v>
+        <v>1.689127992438108</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.889761788485162</v>
@@ -37272,7 +37044,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.702909224028945</v>
+        <v>1.700936762865245</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.896197321175432</v>
@@ -37361,7 +37133,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.699466230836957</v>
+        <v>1.697788259324779</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.856443793617397</v>
@@ -37450,7 +37222,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.681773710223505</v>
+        <v>1.690749559544927</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.948594808900933</v>
@@ -37539,7 +37311,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.67753564635436</v>
+        <v>1.682929748570239</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.047367747581188</v>
@@ -37628,7 +37400,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.689371556929353</v>
+        <v>1.687657457761045</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.473437851449718</v>
@@ -37717,7 +37489,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.696577331236047</v>
+        <v>1.683872118710786</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.242816594055509</v>
@@ -37806,7 +37578,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.704097342480374</v>
+        <v>1.685251980098019</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.088371004909776</v>
@@ -37895,7 +37667,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.702572073690609</v>
+        <v>1.69014796314417</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.481751610379606</v>
@@ -37984,7 +37756,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.705567586623693</v>
+        <v>1.692220285476264</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.40441951820705</v>
@@ -38073,7 +37845,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.706771408565612</v>
+        <v>1.693495724014005</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.487232357638687</v>
@@ -38162,7 +37934,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.707987819495626</v>
+        <v>1.700302188111019</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.330666993657184</v>
@@ -38251,7 +38023,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.709933820876862</v>
+        <v>1.698593169742962</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.228682285623339</v>
@@ -38340,7 +38112,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.721420188763837</v>
+        <v>1.703825681200604</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.042168424050669</v>
@@ -38429,7 +38201,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.725785128517742</v>
+        <v>1.70910358152115</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.049628409015529</v>
@@ -38518,7 +38290,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.745996513788286</v>
+        <v>1.731715094478337</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.572318516766646</v>
@@ -38804,7 +38576,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.595713242715699</v>
+        <v>1.594235540887543</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.00598110965484</v>
@@ -38893,7 +38665,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.590151131913962</v>
+        <v>1.587510572324637</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.917490735860442</v>
@@ -38982,7 +38754,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.586184888043659</v>
+        <v>1.575231375777875</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.572231527971979</v>
@@ -39071,7 +38843,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.587231566966618</v>
+        <v>1.569960935132702</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.558951986101175</v>
@@ -39160,7 +38932,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.614695213712227</v>
+        <v>1.588423397571398</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.790409426554512</v>
@@ -39249,7 +39021,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.599936408379706</v>
+        <v>1.577307706437411</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.043664108729555</v>
@@ -39338,7 +39110,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.598167039203724</v>
+        <v>1.574216316164589</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.763625200186796</v>
@@ -39427,7 +39199,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.617269438164965</v>
+        <v>1.589947445796519</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.870246563061604</v>
@@ -39516,7 +39288,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615715144967528</v>
+        <v>1.580975102197188</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.940172764825665</v>
@@ -39605,7 +39377,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.595857012146284</v>
+        <v>1.565738305233212</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.81030955007431</v>
@@ -39694,7 +39466,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.589483721619861</v>
+        <v>1.559944657069355</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.774181606761799</v>
@@ -39783,7 +39555,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.589309439424672</v>
+        <v>1.557860760693246</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.782382691939342</v>
@@ -39872,7 +39644,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.595137541315165</v>
+        <v>1.566387984189966</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.888971699128855</v>
@@ -39961,7 +39733,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.578832791319443</v>
+        <v>1.54881846379873</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.461888320836746</v>
@@ -40050,7 +39822,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.653024356262664</v>
+        <v>1.630902908856076</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.289227289124887</v>
@@ -40139,7 +39911,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.757485035741761</v>
+        <v>1.756241539999881</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.614583738821953</v>
@@ -40228,7 +40000,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.755435649685349</v>
+        <v>1.762436265369099</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.641315034719926</v>
@@ -40317,7 +40089,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.712120662638997</v>
+        <v>1.731022111358038</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.652757039112084</v>
@@ -40406,7 +40178,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.71038388149433</v>
+        <v>1.73156511774771</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.619422484834265</v>
@@ -40495,7 +40267,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.686789415585688</v>
+        <v>1.715426918634005</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.361209836840133</v>
@@ -40584,7 +40356,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.656380913922948</v>
+        <v>1.687181216640512</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.359738092821007</v>
@@ -40673,7 +40445,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.653167479048096</v>
+        <v>1.690203179114883</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.408873055403156</v>
@@ -40762,7 +40534,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.652291291543216</v>
+        <v>1.690822763391847</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.399600550092901</v>
@@ -40851,7 +40623,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.656554420559681</v>
+        <v>1.697419178946452</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.383771507048925</v>
@@ -40940,7 +40712,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.663062689744353</v>
+        <v>1.705755782398319</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.38944046589525</v>
@@ -41029,7 +40801,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.666091247612426</v>
+        <v>1.708670391522037</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.375528766395961</v>
@@ -41118,7 +40890,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.667273989400997</v>
+        <v>1.709570430902648</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.366863666046041</v>
@@ -41207,7 +40979,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.668960540995814</v>
+        <v>1.710656186697621</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.41046317120179</v>
@@ -41296,7 +41068,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.677674274875777</v>
+        <v>1.719113541132341</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.399949947559908</v>
@@ -41385,7 +41157,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.658390601085669</v>
+        <v>1.702219364150283</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.412313157001336</v>
@@ -41474,7 +41246,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.53949364329947</v>
+        <v>1.569815847959405</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.030245353303704</v>
@@ -41563,7 +41335,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.52093612210316</v>
+        <v>1.543311362512862</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.993664963557577</v>
@@ -41652,7 +41424,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.546950996257849</v>
+        <v>1.564917368784337</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.035672182602119</v>
@@ -41741,7 +41513,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535083925024865</v>
+        <v>1.555690969964812</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.069965905948624</v>
@@ -41830,7 +41602,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.561032601298693</v>
+        <v>1.561186886930088</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.333191872042691</v>
@@ -41919,7 +41691,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.584950872189395</v>
+        <v>1.586820372292706</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.376551086477804</v>
@@ -42008,7 +41780,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.592975473399484</v>
+        <v>1.596504827980726</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.926098614941764</v>
@@ -42097,7 +41869,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.588202341304756</v>
+        <v>1.59219211323965</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.785770100447719</v>
@@ -42186,7 +41958,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.586652035538153</v>
+        <v>1.589905646257989</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.813692121438638</v>
@@ -42275,7 +42047,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.575622045749522</v>
+        <v>1.578923881888988</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.922492547634339</v>
@@ -42364,7 +42136,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.574905667150512</v>
+        <v>1.57800003210471</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.888562700038818</v>
@@ -42453,7 +42225,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.571831668112608</v>
+        <v>1.574623110934292</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.872683954113936</v>
@@ -42542,7 +42314,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564696528477542</v>
+        <v>1.563044860171517</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.752973055662482</v>
@@ -42631,7 +42403,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.561818230820122</v>
+        <v>1.562081422009487</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.798102197308587</v>
@@ -42720,7 +42492,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.548928954340359</v>
+        <v>1.547674983950597</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.800415858655346</v>
@@ -42809,7 +42581,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.55975623235287</v>
+        <v>1.559747210762621</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.649053016751223</v>
@@ -42898,7 +42670,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.577616080782533</v>
+        <v>1.577979699182532</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.489848439789026</v>
@@ -42987,7 +42759,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.573643855687544</v>
+        <v>1.577919889763328</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.817735100919752</v>
@@ -43076,7 +42848,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.581511403435516</v>
+        <v>1.581356795797435</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.814419491344835</v>
@@ -43165,7 +42937,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.597674602095252</v>
+        <v>1.601617679534948</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.738300982393686</v>
@@ -43254,7 +43026,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.602724303092871</v>
+        <v>1.60085019041789</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.622453759607024</v>
@@ -43343,7 +43115,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.59859979052935</v>
+        <v>1.591184486904859</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.005531036630342</v>
@@ -43432,7 +43204,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.601623001326702</v>
+        <v>1.5985776555301</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.931604318173625</v>
@@ -43521,7 +43293,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.629929431704619</v>
+        <v>1.616637151346562</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.927338513544956</v>
@@ -43610,7 +43382,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.628609956118334</v>
+        <v>1.617926411236364</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.908649872818289</v>
@@ -43699,7 +43471,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.5803341788348</v>
+        <v>1.580283092925795</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.936077207687507</v>
@@ -43788,7 +43560,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.564371528240985</v>
+        <v>1.567223552911879</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.928369989203443</v>
@@ -43877,7 +43649,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.566357883409177</v>
+        <v>1.572314085415661</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.944692824297011</v>
@@ -43966,7 +43738,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.569307151874564</v>
+        <v>1.570345393136573</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.907822669589868</v>
@@ -44055,7 +43827,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.567701720807303</v>
+        <v>1.571055445641066</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.920586560641226</v>
@@ -44144,7 +43916,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.562200168365385</v>
+        <v>1.565657036832697</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.936940147918093</v>
@@ -44233,7 +44005,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.565954290830347</v>
+        <v>1.567688079031828</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.897629345626318</v>
@@ -44322,7 +44094,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.569484911055672</v>
+        <v>1.569624405297988</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.935617963612035</v>
@@ -44411,7 +44183,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.577828404846587</v>
+        <v>1.574956010614226</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.921645097441053</v>
@@ -44500,7 +44272,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.569633454948357</v>
+        <v>1.567027108311956</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.953906185245148</v>
@@ -44589,7 +44361,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.561867480284581</v>
+        <v>1.552929254328597</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.924654014643595</v>
@@ -44678,7 +44450,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.554532671337036</v>
+        <v>1.546824085675864</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.952749375530284</v>
@@ -44767,7 +44539,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.552282430715685</v>
+        <v>1.546388060586296</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.946548868680637</v>
@@ -44856,7 +44628,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.513293780650178</v>
+        <v>1.517031521200931</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.248438271011228</v>
@@ -44945,7 +44717,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.512620842803237</v>
+        <v>1.512902504737824</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.328934142498861</v>
@@ -45034,7 +44806,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.550219346197709</v>
+        <v>1.541743425498034</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.694605680490994</v>
@@ -45123,7 +44895,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.559498518673525</v>
+        <v>1.546406390870781</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.978808099608833</v>
@@ -45212,7 +44984,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.545530626483778</v>
+        <v>1.533548203865574</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.840614333852549</v>
@@ -45301,7 +45073,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.553137229005564</v>
+        <v>1.539539440761878</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.678115830039611</v>
@@ -45390,7 +45162,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.56580772904023</v>
+        <v>1.549915934908228</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.979691125026387</v>
@@ -45479,7 +45251,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.573956847442091</v>
+        <v>1.555523410742501</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.910968846780532</v>
@@ -45568,7 +45340,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.574972319481339</v>
+        <v>1.563886077116883</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.850995096828992</v>
@@ -45657,7 +45429,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.566022580630748</v>
+        <v>1.544805170615132</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.857742698980664</v>
@@ -45746,7 +45518,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.541544468373655</v>
+        <v>1.539301960415752</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.686550337573491</v>
@@ -45835,7 +45607,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.544408389435922</v>
+        <v>1.538247359320016</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.478850985218747</v>
@@ -45924,7 +45696,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.575441854146814</v>
+        <v>1.577815321823657</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.873529261068011</v>
@@ -46210,7 +45982,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.312314331532393</v>
+        <v>1.326106532293618</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.663107257473751</v>
@@ -46299,7 +46071,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.316642666978399</v>
+        <v>1.33229346397737</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.630520187725826</v>
@@ -46388,7 +46160,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.325736219510834</v>
+        <v>1.339851224025585</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.609253841250603</v>
@@ -46477,7 +46249,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.347219534490706</v>
+        <v>1.362301365306465</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.624784252617742</v>
@@ -46566,7 +46338,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.380413598651326</v>
+        <v>1.396420568736501</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.611173647710924</v>
@@ -46655,7 +46427,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.383250096387476</v>
+        <v>1.401413037347915</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.631516597617588</v>
@@ -46744,7 +46516,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.395400521238262</v>
+        <v>1.413751542370876</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.595905597298077</v>
@@ -46833,7 +46605,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.576968048546667</v>
+        <v>1.590553441279794</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.78552651757976</v>
@@ -46922,7 +46694,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.627198673620267</v>
+        <v>1.631607831174102</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.495487969031748</v>
@@ -47011,7 +46783,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.677733791911726</v>
+        <v>1.678615116050704</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.610312340719386</v>
@@ -47100,7 +46872,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.676978826772862</v>
+        <v>1.676032025994968</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.125344700547339</v>
@@ -47189,7 +46961,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.644725584206663</v>
+        <v>1.648552153584423</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.113685622371977</v>
@@ -47278,7 +47050,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.639919064749837</v>
+        <v>1.643585593451232</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.085234516162988</v>
@@ -47367,7 +47139,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.619957307144407</v>
+        <v>1.628047279045237</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.978555855013947</v>
@@ -47456,7 +47228,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.63083659798737</v>
+        <v>1.646465772924129</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.916033424704748</v>
@@ -47545,7 +47317,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.656917848932759</v>
+        <v>1.676505943071539</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.522318476326109</v>
@@ -47634,7 +47406,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.641542884804472</v>
+        <v>1.66741853768397</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.565433551871909</v>
@@ -47723,7 +47495,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615206423969145</v>
+        <v>1.647673135447551</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.614912748228047</v>
@@ -47812,7 +47584,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.608614858928485</v>
+        <v>1.64082648259372</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.636618661469754</v>
@@ -47901,7 +47673,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.578351197154408</v>
+        <v>1.613093616506267</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.462187909038525</v>
@@ -47990,7 +47762,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.575774457324205</v>
+        <v>1.617917645206613</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.666597183140153</v>
@@ -48079,7 +47851,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.573510342959148</v>
+        <v>1.619573060504944</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.505327186631396</v>
@@ -48168,7 +47940,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.576759411286205</v>
+        <v>1.62415732737887</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.406780575748385</v>
@@ -48257,7 +48029,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594857179267915</v>
+        <v>1.642756329223972</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.512865497114845</v>
@@ -48346,7 +48118,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.600063611709953</v>
+        <v>1.648788268496735</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.500833363231328</v>
@@ -48435,7 +48207,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.608740451700494</v>
+        <v>1.65953334559952</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.559859911933927</v>
@@ -48524,7 +48296,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.624469384059457</v>
+        <v>1.666991079406801</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.454631640801017</v>
@@ -48613,7 +48385,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.62507021743932</v>
+        <v>1.671301322026365</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.544966037839319</v>
@@ -48702,7 +48474,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.586724412612426</v>
+        <v>1.633245344914651</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.576547871225131</v>
@@ -48791,7 +48563,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.536774437741929</v>
+        <v>1.577296809073117</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.617900390691042</v>
@@ -48880,7 +48652,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.506285441915089</v>
+        <v>1.53894697644658</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.56756722153756</v>
@@ -48969,7 +48741,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.479760387694994</v>
+        <v>1.503426633081456</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.543497597845162</v>
@@ -49058,7 +48830,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.467188343701016</v>
+        <v>1.490689360111773</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.530280762288069</v>
@@ -49147,7 +48919,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.457309949716914</v>
+        <v>1.48164573875991</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.510956951062469</v>
@@ -49236,7 +49008,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.458576924054748</v>
+        <v>1.475198867272964</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.499104363787944</v>
@@ -49325,7 +49097,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.455119457686464</v>
+        <v>1.46035443449516</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.301153235104855</v>
@@ -49414,7 +49186,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.428565348364478</v>
+        <v>1.440513934060246</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.48887999808577</v>
@@ -49503,7 +49275,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.403709485899862</v>
+        <v>1.417226248047753</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.520811196410093</v>
@@ -49592,7 +49364,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.388801849764295</v>
+        <v>1.402107787871064</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.540246456849853</v>
@@ -49681,7 +49453,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.374115172434024</v>
+        <v>1.385871745781095</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.56364108688368</v>
@@ -49770,7 +49542,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.36268590899736</v>
+        <v>1.373118668672344</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.528021743118602</v>
@@ -49859,7 +49631,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.354743924248039</v>
+        <v>1.368957676187798</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.418465076806017</v>
@@ -49948,7 +49720,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.359122152885352</v>
+        <v>1.372781935517265</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.420449491623174</v>
@@ -50037,7 +49809,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.381557012139219</v>
+        <v>1.3951914884181</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.483297443161343</v>
@@ -50126,7 +49898,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.408628527331767</v>
+        <v>1.427517545112491</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.374779860130411</v>
@@ -50215,7 +49987,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.411346784095369</v>
+        <v>1.431186958027902</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.320913650208749</v>
@@ -50304,7 +50076,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.44764425698563</v>
+        <v>1.469347349476229</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.18427918329576</v>
@@ -50393,7 +50165,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.456306200546218</v>
+        <v>1.480981351014808</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.363197153018878</v>
@@ -50482,7 +50254,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.468865391689152</v>
+        <v>1.492068624548371</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.382977286773836</v>
@@ -50571,7 +50343,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.490928185847039</v>
+        <v>1.519211329643742</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.285743550134835</v>
@@ -50660,7 +50432,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.511207746899942</v>
+        <v>1.545306226946145</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.299280340068335</v>
@@ -50749,7 +50521,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.527325845827038</v>
+        <v>1.561148260961843</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.457751304640451</v>
@@ -50838,7 +50610,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.521532765093289</v>
+        <v>1.5601904008538</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.441101740868179</v>
@@ -50927,7 +50699,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.563736454019633</v>
+        <v>1.594790557717001</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.953468943692625</v>
@@ -51016,7 +50788,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.569298232455809</v>
+        <v>1.597707305696455</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.999235417664922</v>
@@ -51105,7 +50877,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.571174944115765</v>
+        <v>1.59897276168007</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.975959466113845</v>
@@ -51194,7 +50966,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.579901072655908</v>
+        <v>1.607057022751217</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.956887305268592</v>
@@ -51283,7 +51055,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.575119127087773</v>
+        <v>1.599887138966602</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.033296387087516</v>
@@ -51372,7 +51144,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.547485089120158</v>
+        <v>1.577926432021475</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.004596748373607</v>
@@ -51461,7 +51233,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.528812939332465</v>
+        <v>1.560165609523589</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.018561003267388</v>
@@ -51550,7 +51322,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.544688968759929</v>
+        <v>1.571198484785984</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.044052284824345</v>
@@ -51639,7 +51411,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.531759074682753</v>
+        <v>1.564217192968385</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.067173462406885</v>
@@ -51728,7 +51500,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.515631497412947</v>
+        <v>1.548452564745798</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.052376765792631</v>
@@ -51817,7 +51589,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.509605231049625</v>
+        <v>1.544174949592959</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.024396547638863</v>
@@ -51906,7 +51678,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.514156951425026</v>
+        <v>1.537754035266283</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.079008273878092</v>
@@ -51995,7 +51767,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.474410138819231</v>
+        <v>1.502429056830906</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.087949177790351</v>
@@ -52084,7 +51856,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.480772919190373</v>
+        <v>1.507586185030589</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.060610903562739</v>
@@ -52173,7 +51945,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.505359537875789</v>
+        <v>1.53183151068306</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.013347744107183</v>
@@ -52262,7 +52034,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.476221198834846</v>
+        <v>1.509274077950438</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.373804442578484</v>
@@ -52351,7 +52123,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.476007938982306</v>
+        <v>1.511666273301501</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.682862324288623</v>
@@ -52440,7 +52212,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.506519484873283</v>
+        <v>1.546334753276112</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.522894872065519</v>
@@ -52529,7 +52301,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.496161492811547</v>
+        <v>1.535998090567547</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.480309320501774</v>
@@ -52618,7 +52390,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.49003779596183</v>
+        <v>1.528731372537055</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.446721505604772</v>
@@ -52707,7 +52479,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.50589636264004</v>
+        <v>1.546121194586236</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.497237459629743</v>
@@ -52796,7 +52568,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.507341164057395</v>
+        <v>1.547180309466832</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.574819492391485</v>
@@ -52885,7 +52657,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.529580940459403</v>
+        <v>1.571079489545864</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.674051954032854</v>
@@ -52974,7 +52746,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.529170288418825</v>
+        <v>1.574770131539089</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.383476862227858</v>
@@ -53063,7 +52835,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.533292470703273</v>
+        <v>1.577906844064929</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.488012388765966</v>
@@ -53152,7 +52924,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.528868355154831</v>
+        <v>1.572642833285376</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.467671437807855</v>
@@ -53241,7 +53013,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.547246172025027</v>
+        <v>1.596963147026469</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.608294055982655</v>
@@ -53330,7 +53102,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.580768298723422</v>
+        <v>1.624914539068149</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.506063877251779</v>
